--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2643079.7</v>
+        <v>5235900.41</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91140.67999999999</v>
+        <v>106855.11</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183577.88</v>
+        <v>179401.49</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85807.09</v>
+        <v>85835.50999999999</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199688.54</v>
+        <v>199617.02</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>139902.09</v>
+        <v>134901.55</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15766.43</v>
+        <v>15771.04</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>299059.73</v>
+        <v>299230.76</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104673.56</v>
+        <v>104696.45</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>197584.75</v>
+        <v>197074.16</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143592.71</v>
+        <v>142792.65</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85089.28999999999</v>
+        <v>84122.03999999999</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132585.61</v>
+        <v>133651.05</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80184.53</v>
+        <v>80173.28999999999</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201184.99</v>
+        <v>201247.08</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56701.32</v>
+        <v>56697.16</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>113167.18</v>
+        <v>107786.3</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120313.44</v>
+        <v>115794.74</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59811.46</v>
+        <v>59793.66</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>88553.67999999999</v>
+        <v>88572.17</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26365.77</v>
+        <v>26369.31</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25442.35</v>
+        <v>27286.42</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33184.51</v>
+        <v>33182.49</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32193.81</v>
+        <v>29703.43</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>59882.36</v>
+        <v>66807.58</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26607.16</v>
+        <v>26596.77</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8905.879999999999</v>
+        <v>8907.190000000001</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>71098.63</v>
+        <v>71091.16</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25367.57</v>
+        <v>25367.28</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1684.37</v>
+        <v>1684.53</v>
       </c>
     </row>
     <row r="32">
@@ -747,7 +747,207 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25103.01</v>
+        <v>25096.11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20556.53</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>17831.33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>85150.73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>236745.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>22629.35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>15730.35</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>88413.05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1269.52</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>281317.24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>35799.89</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10962.12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3895.31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>33887.57</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>484.78</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>468937.08</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4363.64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1684.53</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>228965.84</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>547989.64</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>500035.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -813,7 +813,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,518 +436,646 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5235900.41</v>
+        <v>73687.48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>78476.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106855.11</v>
+        <v>169200.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>164475.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179401.49</v>
+        <v>26608.91</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26608.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85835.50999999999</v>
+        <v>32859.17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>34819.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199617.02</v>
+        <v>85801.23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>85824.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134901.55</v>
+        <v>194793.73</v>
+      </c>
+      <c r="C7" t="n">
+        <v>194733.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15771.04</v>
+        <v>1267.13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1270.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>299230.76</v>
+        <v>281214.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>281306.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104696.45</v>
+        <v>8908.610000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8835.940000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>197074.16</v>
+        <v>485.28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>451.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142792.65</v>
+        <v>3894.16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3894.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84122.03999999999</v>
+        <v>134948.51</v>
+      </c>
+      <c r="C13" t="n">
+        <v>143087.38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133651.05</v>
-      </c>
+        <v>16630.12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80173.28999999999</v>
+        <v>20565.91</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29100.57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201247.08</v>
+        <v>464805.74</v>
+      </c>
+      <c r="C16" t="n">
+        <v>460670.55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56697.16</v>
+        <v>299112.67</v>
+      </c>
+      <c r="C17" t="n">
+        <v>299078.34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>107786.3</v>
+        <v>104649.26</v>
+      </c>
+      <c r="C18" t="n">
+        <v>104654.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115794.74</v>
+        <v>85154.94</v>
+      </c>
+      <c r="C19" t="n">
+        <v>85191.82000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59793.66</v>
+        <v>236760.64</v>
+      </c>
+      <c r="C20" t="n">
+        <v>236715.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>88572.17</v>
+        <v>17828.01</v>
+      </c>
+      <c r="C21" t="n">
+        <v>17825.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26369.31</v>
+        <v>35831.38</v>
+      </c>
+      <c r="C22" t="n">
+        <v>35857.41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27286.42</v>
+        <v>114859.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>122389.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33182.49</v>
+        <v>114982.83</v>
+      </c>
+      <c r="C24" t="n">
+        <v>120543.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29703.43</v>
+        <v>200032.35</v>
+      </c>
+      <c r="C25" t="n">
+        <v>196570.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>66807.58</v>
+        <v>139816.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>128858.05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26596.77</v>
+        <v>71088.34</v>
+      </c>
+      <c r="C27" t="n">
+        <v>71116.75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>8907.190000000001</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>540169.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>71091.16</v>
+        <v>25368.69</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26072.86</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25367.28</v>
+        <v>4066.03</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4065.63</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1684.53</v>
+        <v>82635.73</v>
+      </c>
+      <c r="C31" t="n">
+        <v>88625.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25096.11</v>
+        <v>133585.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>137116.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20556.53</v>
+        <v>28641.02</v>
+      </c>
+      <c r="C33" t="n">
+        <v>28550.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17831.33</v>
+        <v>22628.73</v>
+      </c>
+      <c r="C34" t="n">
+        <v>22630.17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>85150.73</v>
+        <v>15718.85</v>
+      </c>
+      <c r="C35" t="n">
+        <v>15721.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>236745.8</v>
+        <v>25092.09</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25097.35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22629.35</v>
+        <v>59783.95</v>
+      </c>
+      <c r="C37" t="n">
+        <v>59798.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15730.35</v>
+        <v>88573.31</v>
+      </c>
+      <c r="C38" t="n">
+        <v>98012.89999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>88413.05</v>
+        <v>31687.23</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35588.62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1269.52</v>
+        <v>80177.36</v>
+      </c>
+      <c r="C40" t="n">
+        <v>80197.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>281317.24</v>
+        <v>56685.34</v>
+      </c>
+      <c r="C41" t="n">
+        <v>56674.56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>35799.89</v>
+        <v>209016.74</v>
+      </c>
+      <c r="C42" t="n">
+        <v>223662.49</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10962.12</v>
+        <v>241908.74</v>
+      </c>
+      <c r="C43" t="n">
+        <v>241929.54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3895.31</v>
+        <v>547970.17</v>
+      </c>
+      <c r="C44" t="n">
+        <v>603943.27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33887.57</v>
+        <v>88258.57000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>88367.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>484.78</v>
+        <v>33790.33</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30657.53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>468937.08</v>
+        <v>25089.69</v>
+      </c>
+      <c r="C47" t="n">
+        <v>25084.87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4363.64</v>
+        <v>10946.94</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10957.58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1684.53</v>
+        <v>103204.61</v>
+      </c>
+      <c r="C49" t="n">
+        <v>116853.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>228965.84</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Supefondo RV</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>547989.64</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>500035.72</v>
+        <v>4747411.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5375281.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,634 +443,511 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73687.48</v>
-      </c>
-      <c r="C2" t="n">
-        <v>78476.92</v>
+        <v>5545832.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169200.25</v>
-      </c>
-      <c r="C3" t="n">
-        <v>164475.4</v>
+        <v>113180.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26608.91</v>
-      </c>
-      <c r="C4" t="n">
-        <v>26608.73</v>
+        <v>78476.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32859.17</v>
-      </c>
-      <c r="C5" t="n">
-        <v>34819.78</v>
+        <v>164475.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85801.23</v>
-      </c>
-      <c r="C6" t="n">
-        <v>85824.98</v>
+        <v>26608.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>194793.73</v>
-      </c>
-      <c r="C7" t="n">
-        <v>194733.06</v>
+        <v>34819.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1267.13</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1270.11</v>
+        <v>85824.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>281214.34</v>
-      </c>
-      <c r="C9" t="n">
-        <v>281306.99</v>
+        <v>194733.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8908.610000000001</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8835.940000000001</v>
+        <v>95157.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>485.28</v>
-      </c>
-      <c r="C11" t="n">
-        <v>451.23</v>
+        <v>57183.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3894.16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3894.07</v>
+        <v>1270.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134948.51</v>
-      </c>
-      <c r="C13" t="n">
-        <v>143087.38</v>
+        <v>281306.99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16630.12</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>8835.940000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20565.91</v>
-      </c>
-      <c r="C15" t="n">
-        <v>29100.57</v>
+        <v>451.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>464805.74</v>
-      </c>
-      <c r="C16" t="n">
-        <v>460670.55</v>
+        <v>3894.07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>299112.67</v>
-      </c>
-      <c r="C17" t="n">
-        <v>299078.34</v>
+        <v>143087.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104649.26</v>
-      </c>
-      <c r="C18" t="n">
-        <v>104654.6</v>
+        <v>18210.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85154.94</v>
-      </c>
-      <c r="C19" t="n">
-        <v>85191.82000000001</v>
+        <v>29100.57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>236760.64</v>
-      </c>
-      <c r="C20" t="n">
-        <v>236715.38</v>
+        <v>460670.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17828.01</v>
-      </c>
-      <c r="C21" t="n">
-        <v>17825.12</v>
+        <v>299078.34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35831.38</v>
-      </c>
-      <c r="C22" t="n">
-        <v>35857.41</v>
+        <v>104654.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>114859.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>122389.53</v>
+        <v>17825.12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>114982.83</v>
-      </c>
-      <c r="C24" t="n">
-        <v>120543.2</v>
+        <v>85191.82000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200032.35</v>
-      </c>
-      <c r="C25" t="n">
-        <v>196570.7</v>
+        <v>236715.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>139816.5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>128858.05</v>
+        <v>35857.41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71088.34</v>
-      </c>
-      <c r="C27" t="n">
-        <v>71116.75</v>
+        <v>122389.53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>540169.14</v>
+          <t>FBA Calificado</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>120543.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25368.69</v>
-      </c>
-      <c r="C29" t="n">
-        <v>26072.86</v>
+        <v>196570.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4066.03</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4065.63</v>
+        <v>128858.05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82635.73</v>
-      </c>
-      <c r="C31" t="n">
-        <v>88625.83</v>
+        <v>71116.75</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>133585.2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>137116.83</v>
+        <v>540169.14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28641.02</v>
-      </c>
-      <c r="C33" t="n">
-        <v>28550.44</v>
+        <v>26072.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22628.73</v>
-      </c>
-      <c r="C34" t="n">
-        <v>22630.17</v>
+        <v>4065.63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15718.85</v>
-      </c>
-      <c r="C35" t="n">
-        <v>15721.9</v>
+        <v>88625.83</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25092.09</v>
-      </c>
-      <c r="C36" t="n">
-        <v>25097.35</v>
+        <v>137116.83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59783.95</v>
-      </c>
-      <c r="C37" t="n">
-        <v>59798.1</v>
+        <v>28550.44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88573.31</v>
-      </c>
-      <c r="C38" t="n">
-        <v>98012.89999999999</v>
+        <v>22630.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31687.23</v>
-      </c>
-      <c r="C39" t="n">
-        <v>35588.62</v>
+        <v>15721.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80177.36</v>
-      </c>
-      <c r="C40" t="n">
-        <v>80197.7</v>
+        <v>25097.35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>56685.34</v>
-      </c>
-      <c r="C41" t="n">
-        <v>56674.56</v>
+        <v>59798.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>209016.74</v>
-      </c>
-      <c r="C42" t="n">
-        <v>223662.49</v>
+        <v>98012.89999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241908.74</v>
-      </c>
-      <c r="C43" t="n">
-        <v>241929.54</v>
+        <v>35588.62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>547970.17</v>
-      </c>
-      <c r="C44" t="n">
-        <v>603943.27</v>
+        <v>80197.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>88258.57000000001</v>
-      </c>
-      <c r="C45" t="n">
-        <v>88367.8</v>
+        <v>56674.56</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33790.33</v>
-      </c>
-      <c r="C46" t="n">
-        <v>30657.53</v>
+        <v>223662.49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25089.69</v>
-      </c>
-      <c r="C47" t="n">
-        <v>25084.87</v>
+        <v>241929.54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>10946.94</v>
-      </c>
-      <c r="C48" t="n">
-        <v>10957.58</v>
+        <v>603943.27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>103204.61</v>
-      </c>
-      <c r="C49" t="n">
-        <v>116853.95</v>
+        <v>88367.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4747411.9</v>
-      </c>
-      <c r="C50" t="n">
-        <v>5375281.72</v>
+        <v>30657.53</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>25084.87</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10957.58</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,515 +439,653 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5545832.83</v>
+        <v>78476.92</v>
+      </c>
+      <c r="C2" t="n">
+        <v>90812.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113180.26</v>
+        <v>164475.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>173984.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78476.92</v>
+        <v>26608.73</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27374.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164475.4</v>
+        <v>34819.78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>35876.99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26608.73</v>
+        <v>85824.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>85803.85000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34819.78</v>
+        <v>194733.06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>194718.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85824.98</v>
+        <v>95157.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>95138.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194733.06</v>
+        <v>57183.19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61249.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95157.3</v>
+        <v>1270.11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1270.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57183.19</v>
+        <v>281306.99</v>
+      </c>
+      <c r="C11" t="n">
+        <v>281236.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1270.11</v>
+        <v>8835.940000000001</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8836.120000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281306.99</v>
+        <v>451.23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>450.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8835.940000000001</v>
+        <v>3894.07</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3894.72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>451.23</v>
+        <v>143087.38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>148848.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3894.07</v>
+        <v>18210.62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19324.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>143087.38</v>
+        <v>29100.57</v>
+      </c>
+      <c r="C17" t="n">
+        <v>29065.99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18210.62</v>
+        <v>460670.55</v>
+      </c>
+      <c r="C18" t="n">
+        <v>455957.45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29100.57</v>
-      </c>
+        <v>299078.34</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>460670.55</v>
-      </c>
+        <v>104654.6</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>299078.34</v>
-      </c>
+        <v>17825.12</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104654.6</v>
-      </c>
+        <v>85191.82000000001</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17825.12</v>
-      </c>
+        <v>236715.38</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85191.82000000001</v>
-      </c>
+        <v>35857.41</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>236715.38</v>
-      </c>
+        <v>122389.53</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35857.41</v>
-      </c>
+        <v>120543.2</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>122389.53</v>
-      </c>
+        <v>196570.7</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120543.2</v>
+        <v>128858.05</v>
+      </c>
+      <c r="C28" t="n">
+        <v>121976.55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196570.7</v>
+        <v>71116.75</v>
+      </c>
+      <c r="C29" t="n">
+        <v>71086.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>128858.05</v>
+        <v>540169.14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>550171.0699999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71116.75</v>
+        <v>26072.86</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26066.84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>540169.14</v>
+        <v>4065.63</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4066.04</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26072.86</v>
+        <v>88625.83</v>
+      </c>
+      <c r="C33" t="n">
+        <v>90634.21000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4065.63</v>
+        <v>137116.83</v>
+      </c>
+      <c r="C34" t="n">
+        <v>139635.16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88625.83</v>
+        <v>28550.44</v>
+      </c>
+      <c r="C35" t="n">
+        <v>29876.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>137116.83</v>
+        <v>22630.17</v>
+      </c>
+      <c r="C36" t="n">
+        <v>23803.54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28550.44</v>
+        <v>15721.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>15723.67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>22630.17</v>
+        <v>25097.35</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25101.66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15721.9</v>
-      </c>
+        <v>59798.1</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25097.35</v>
+        <v>98012.89999999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>98045.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>59798.1</v>
+        <v>35588.62</v>
+      </c>
+      <c r="C41" t="n">
+        <v>35601.34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98012.89999999999</v>
+        <v>80197.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>80186.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35588.62</v>
+        <v>56674.56</v>
+      </c>
+      <c r="C43" t="n">
+        <v>56675.38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80197.7</v>
+        <v>223662.49</v>
+      </c>
+      <c r="C44" t="n">
+        <v>223571.26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56674.56</v>
+        <v>241929.54</v>
+      </c>
+      <c r="C45" t="n">
+        <v>242001.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>223662.49</v>
+        <v>603943.27</v>
+      </c>
+      <c r="C46" t="n">
+        <v>660221.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>241929.54</v>
+        <v>88367.8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>88426.83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>603943.27</v>
+        <v>30657.53</v>
+      </c>
+      <c r="C48" t="n">
+        <v>30750.72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>88367.8</v>
+        <v>25084.87</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25868.73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>30657.53</v>
+        <v>10957.58</v>
+      </c>
+      <c r="C50" t="n">
+        <v>10959.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25084.87</v>
+        <v>113180.26</v>
+      </c>
+      <c r="C51" t="n">
+        <v>111905</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10957.58</v>
+        <v>5545832.83</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4364294.97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>90812.03</v>
       </c>
+      <c r="D2" t="n">
+        <v>95588.87</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>173984.09</v>
       </c>
+      <c r="D3" t="n">
+        <v>173991.51</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>27374.89</v>
       </c>
+      <c r="D4" t="n">
+        <v>29811.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>35876.99</v>
       </c>
+      <c r="D5" t="n">
+        <v>36461.29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>85803.85000000001</v>
       </c>
+      <c r="D6" t="n">
+        <v>85800.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>194718.8</v>
       </c>
+      <c r="D7" t="n">
+        <v>194727.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>95138.52</v>
       </c>
+      <c r="D8" t="n">
+        <v>95115.16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>61249.9</v>
       </c>
+      <c r="D9" t="n">
+        <v>58454.46</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>1270.69</v>
       </c>
+      <c r="D10" t="n">
+        <v>1265.86</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>281236.14</v>
       </c>
+      <c r="D11" t="n">
+        <v>281135.64</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>8836.120000000001</v>
       </c>
+      <c r="D12" t="n">
+        <v>8835.92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>450.83</v>
       </c>
+      <c r="D13" t="n">
+        <v>450.85</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>3894.72</v>
       </c>
+      <c r="D14" t="n">
+        <v>3893.79</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>148848.48</v>
       </c>
+      <c r="D15" t="n">
+        <v>142381.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -639,6 +686,9 @@
       <c r="C16" t="n">
         <v>19324.04</v>
       </c>
+      <c r="D16" t="n">
+        <v>19316.33</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -652,6 +702,9 @@
       <c r="C17" t="n">
         <v>29065.99</v>
       </c>
+      <c r="D17" t="n">
+        <v>30769.35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -665,6 +718,9 @@
       <c r="C18" t="n">
         <v>455957.45</v>
       </c>
+      <c r="D18" t="n">
+        <v>454279.37</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -676,6 +732,9 @@
         <v>299078.34</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>299077.45</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -687,6 +746,9 @@
         <v>104654.6</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>112184.64</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -698,6 +760,9 @@
         <v>17825.12</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>17846.52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -709,6 +774,9 @@
         <v>85191.82000000001</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>79633.19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -720,6 +788,9 @@
         <v>236715.38</v>
       </c>
       <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>233367.54</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -731,6 +802,9 @@
         <v>35857.41</v>
       </c>
       <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>35801.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -742,6 +816,9 @@
         <v>122389.53</v>
       </c>
       <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>120943.03</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -753,6 +830,9 @@
         <v>120543.2</v>
       </c>
       <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>123892.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -764,6 +844,9 @@
         <v>196570.7</v>
       </c>
       <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>185807.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -777,6 +860,9 @@
       <c r="C28" t="n">
         <v>121976.55</v>
       </c>
+      <c r="D28" t="n">
+        <v>126962.49</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -790,6 +876,9 @@
       <c r="C29" t="n">
         <v>71086.22</v>
       </c>
+      <c r="D29" t="n">
+        <v>62846.99</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -803,6 +892,9 @@
       <c r="C30" t="n">
         <v>550171.0699999999</v>
       </c>
+      <c r="D30" t="n">
+        <v>550020.61</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -816,6 +908,9 @@
       <c r="C31" t="n">
         <v>26066.84</v>
       </c>
+      <c r="D31" t="n">
+        <v>23565.37</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -829,6 +924,9 @@
       <c r="C32" t="n">
         <v>4066.04</v>
       </c>
+      <c r="D32" t="n">
+        <v>4066.06</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -842,6 +940,9 @@
       <c r="C33" t="n">
         <v>90634.21000000001</v>
       </c>
+      <c r="D33" t="n">
+        <v>89422.64</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -855,6 +956,9 @@
       <c r="C34" t="n">
         <v>139635.16</v>
       </c>
+      <c r="D34" t="n">
+        <v>103133.48</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -868,6 +972,9 @@
       <c r="C35" t="n">
         <v>29876.95</v>
       </c>
+      <c r="D35" t="n">
+        <v>38371.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -881,6 +988,9 @@
       <c r="C36" t="n">
         <v>23803.54</v>
       </c>
+      <c r="D36" t="n">
+        <v>25402.31</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -894,6 +1004,9 @@
       <c r="C37" t="n">
         <v>15723.67</v>
       </c>
+      <c r="D37" t="n">
+        <v>15717.55</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -907,6 +1020,9 @@
       <c r="C38" t="n">
         <v>25101.66</v>
       </c>
+      <c r="D38" t="n">
+        <v>18101.92</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -918,6 +1034,9 @@
         <v>59798.1</v>
       </c>
       <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>59805.93</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -931,6 +1050,9 @@
       <c r="C40" t="n">
         <v>98045.22</v>
       </c>
+      <c r="D40" t="n">
+        <v>109811</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -944,6 +1066,9 @@
       <c r="C41" t="n">
         <v>35601.34</v>
       </c>
+      <c r="D41" t="n">
+        <v>35587.07</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -957,6 +1082,9 @@
       <c r="C42" t="n">
         <v>80186.7</v>
       </c>
+      <c r="D42" t="n">
+        <v>78542.13</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -970,6 +1098,9 @@
       <c r="C43" t="n">
         <v>56675.38</v>
       </c>
+      <c r="D43" t="n">
+        <v>53289.91</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -983,6 +1114,9 @@
       <c r="C44" t="n">
         <v>223571.26</v>
       </c>
+      <c r="D44" t="n">
+        <v>202152.05</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -996,6 +1130,9 @@
       <c r="C45" t="n">
         <v>242001.9</v>
       </c>
+      <c r="D45" t="n">
+        <v>236713.63</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1009,6 +1146,9 @@
       <c r="C46" t="n">
         <v>660221.95</v>
       </c>
+      <c r="D46" t="n">
+        <v>653885.79</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1022,6 +1162,9 @@
       <c r="C47" t="n">
         <v>88426.83</v>
       </c>
+      <c r="D47" t="n">
+        <v>88300.14999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1035,6 +1178,9 @@
       <c r="C48" t="n">
         <v>30750.72</v>
       </c>
+      <c r="D48" t="n">
+        <v>30736.57</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1048,6 +1194,9 @@
       <c r="C49" t="n">
         <v>25868.73</v>
       </c>
+      <c r="D49" t="n">
+        <v>25869.74</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1061,6 +1210,9 @@
       <c r="C50" t="n">
         <v>10959.5</v>
       </c>
+      <c r="D50" t="n">
+        <v>10946.96</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1074,6 +1226,9 @@
       <c r="C51" t="n">
         <v>111905</v>
       </c>
+      <c r="D51" t="n">
+        <v>113552.71</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1086,6 +1241,9 @@
       </c>
       <c r="C52" t="n">
         <v>4364294.97</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5564082.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>95588.87</v>
       </c>
+      <c r="E2" t="n">
+        <v>97865.92</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>173991.51</v>
       </c>
+      <c r="E3" t="n">
+        <v>184348.47</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>29811.14</v>
       </c>
+      <c r="E4" t="n">
+        <v>31018.58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>36461.29</v>
       </c>
+      <c r="E5" t="n">
+        <v>36906.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>85800.02</v>
       </c>
+      <c r="E6" t="n">
+        <v>85792.33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>194727.22</v>
       </c>
+      <c r="E7" t="n">
+        <v>194822.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>95115.16</v>
       </c>
+      <c r="E8" t="n">
+        <v>95143.82000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>58454.46</v>
       </c>
+      <c r="E9" t="n">
+        <v>60753.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>1265.86</v>
       </c>
+      <c r="E10" t="n">
+        <v>1268.36</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>281135.64</v>
       </c>
+      <c r="E11" t="n">
+        <v>281025.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>8835.92</v>
       </c>
+      <c r="E12" t="n">
+        <v>8834.43</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="D13" t="n">
         <v>450.85</v>
       </c>
+      <c r="E13" t="n">
+        <v>450.67</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +698,9 @@
       <c r="D14" t="n">
         <v>3893.79</v>
       </c>
+      <c r="E14" t="n">
+        <v>3894.98</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -673,6 +717,9 @@
       <c r="D15" t="n">
         <v>142381.02</v>
       </c>
+      <c r="E15" t="n">
+        <v>149272.49</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -689,6 +736,9 @@
       <c r="D16" t="n">
         <v>19316.33</v>
       </c>
+      <c r="E16" t="n">
+        <v>20123.06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -705,6 +755,9 @@
       <c r="D17" t="n">
         <v>30769.35</v>
       </c>
+      <c r="E17" t="n">
+        <v>30766.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -720,6 +773,9 @@
       </c>
       <c r="D18" t="n">
         <v>454279.37</v>
+      </c>
+      <c r="E18" t="n">
+        <v>450508.46</v>
       </c>
     </row>
     <row r="19">
@@ -735,6 +791,9 @@
       <c r="D19" t="n">
         <v>299077.45</v>
       </c>
+      <c r="E19" t="n">
+        <v>299223.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -749,6 +808,9 @@
       <c r="D20" t="n">
         <v>112184.64</v>
       </c>
+      <c r="E20" t="n">
+        <v>112156.55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -763,6 +825,9 @@
       <c r="D21" t="n">
         <v>17846.52</v>
       </c>
+      <c r="E21" t="n">
+        <v>17827.49</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -777,6 +842,9 @@
       <c r="D22" t="n">
         <v>79633.19</v>
       </c>
+      <c r="E22" t="n">
+        <v>77412.09</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -791,6 +859,9 @@
       <c r="D23" t="n">
         <v>233367.54</v>
       </c>
+      <c r="E23" t="n">
+        <v>229174.72</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -805,6 +876,9 @@
       <c r="D24" t="n">
         <v>35801.2</v>
       </c>
+      <c r="E24" t="n">
+        <v>35847.13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -819,6 +893,9 @@
       <c r="D25" t="n">
         <v>120943.03</v>
       </c>
+      <c r="E25" t="n">
+        <v>133216.34</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -833,6 +910,9 @@
       <c r="D26" t="n">
         <v>123892.09</v>
       </c>
+      <c r="E26" t="n">
+        <v>126337.61</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -847,6 +927,9 @@
       <c r="D27" t="n">
         <v>185807.2</v>
       </c>
+      <c r="E27" t="n">
+        <v>208228.75</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -863,6 +946,9 @@
       <c r="D28" t="n">
         <v>126962.49</v>
       </c>
+      <c r="E28" t="n">
+        <v>137975.94</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -879,6 +965,9 @@
       <c r="D29" t="n">
         <v>62846.99</v>
       </c>
+      <c r="E29" t="n">
+        <v>51637.68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -895,6 +984,9 @@
       <c r="D30" t="n">
         <v>550020.61</v>
       </c>
+      <c r="E30" t="n">
+        <v>550077.4399999999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -911,6 +1003,9 @@
       <c r="D31" t="n">
         <v>23565.37</v>
       </c>
+      <c r="E31" t="n">
+        <v>23368.06</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -927,6 +1022,9 @@
       <c r="D32" t="n">
         <v>4066.06</v>
       </c>
+      <c r="E32" t="n">
+        <v>4515.83</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -943,6 +1041,9 @@
       <c r="D33" t="n">
         <v>89422.64</v>
       </c>
+      <c r="E33" t="n">
+        <v>87402.08</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -959,6 +1060,9 @@
       <c r="D34" t="n">
         <v>103133.48</v>
       </c>
+      <c r="E34" t="n">
+        <v>105603.26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -975,6 +1079,9 @@
       <c r="D35" t="n">
         <v>38371.7</v>
       </c>
+      <c r="E35" t="n">
+        <v>40184.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -991,6 +1098,9 @@
       <c r="D36" t="n">
         <v>25402.31</v>
       </c>
+      <c r="E36" t="n">
+        <v>28596.32</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1007,6 +1117,9 @@
       <c r="D37" t="n">
         <v>15717.55</v>
       </c>
+      <c r="E37" t="n">
+        <v>15727.67</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1022,6 +1135,9 @@
       </c>
       <c r="D38" t="n">
         <v>18101.92</v>
+      </c>
+      <c r="E38" t="n">
+        <v>21999.94</v>
       </c>
     </row>
     <row r="39">
@@ -1037,6 +1153,9 @@
       <c r="D39" t="n">
         <v>59805.93</v>
       </c>
+      <c r="E39" t="n">
+        <v>59792.52</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1053,6 +1172,9 @@
       <c r="D40" t="n">
         <v>109811</v>
       </c>
+      <c r="E40" t="n">
+        <v>109860.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1069,6 +1191,9 @@
       <c r="D41" t="n">
         <v>35587.07</v>
       </c>
+      <c r="E41" t="n">
+        <v>40597.29</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1085,6 +1210,9 @@
       <c r="D42" t="n">
         <v>78542.13</v>
       </c>
+      <c r="E42" t="n">
+        <v>80972.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1101,6 +1229,9 @@
       <c r="D43" t="n">
         <v>53289.91</v>
       </c>
+      <c r="E43" t="n">
+        <v>52330.8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1117,6 +1248,9 @@
       <c r="D44" t="n">
         <v>202152.05</v>
       </c>
+      <c r="E44" t="n">
+        <v>194262.67</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1133,6 +1267,9 @@
       <c r="D45" t="n">
         <v>236713.63</v>
       </c>
+      <c r="E45" t="n">
+        <v>248116.6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1149,6 +1286,7 @@
       <c r="D46" t="n">
         <v>653885.79</v>
       </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1165,6 +1303,9 @@
       <c r="D47" t="n">
         <v>88300.14999999999</v>
       </c>
+      <c r="E47" t="n">
+        <v>143223.89</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1181,6 +1322,9 @@
       <c r="D48" t="n">
         <v>30736.57</v>
       </c>
+      <c r="E48" t="n">
+        <v>30687.55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1197,6 +1341,9 @@
       <c r="D49" t="n">
         <v>25869.74</v>
       </c>
+      <c r="E49" t="n">
+        <v>25875.39</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1213,6 +1360,7 @@
       <c r="D50" t="n">
         <v>10946.96</v>
       </c>
+      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1229,6 +1377,9 @@
       <c r="D51" t="n">
         <v>113552.71</v>
       </c>
+      <c r="E51" t="n">
+        <v>106915.47</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1244,6 +1395,9 @@
       </c>
       <c r="D52" t="n">
         <v>5564082.71</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5025027.29</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>97865.92</v>
       </c>
+      <c r="F2" t="n">
+        <v>97886.47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>184348.47</v>
       </c>
+      <c r="F3" t="n">
+        <v>177195.86</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>31018.58</v>
       </c>
+      <c r="F4" t="n">
+        <v>33007.63</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>36906.06</v>
       </c>
+      <c r="F5" t="n">
+        <v>36921.63</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>85792.33</v>
       </c>
+      <c r="F6" t="n">
+        <v>85789.78</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>194822.08</v>
       </c>
+      <c r="F7" t="n">
+        <v>194744.21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>95143.82000000001</v>
       </c>
+      <c r="F8" t="n">
+        <v>95139.57000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>60753.6</v>
       </c>
+      <c r="F9" t="n">
+        <v>60749.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>1268.36</v>
       </c>
+      <c r="F10" t="n">
+        <v>1269.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>281025.15</v>
       </c>
+      <c r="F11" t="n">
+        <v>281002.56</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>8834.43</v>
       </c>
+      <c r="F12" t="n">
+        <v>8850.950000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -682,6 +720,9 @@
       <c r="E13" t="n">
         <v>450.67</v>
       </c>
+      <c r="F13" t="n">
+        <v>451.35</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -701,6 +742,9 @@
       <c r="E14" t="n">
         <v>3894.98</v>
       </c>
+      <c r="F14" t="n">
+        <v>3892.82</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -720,6 +764,9 @@
       <c r="E15" t="n">
         <v>149272.49</v>
       </c>
+      <c r="F15" t="n">
+        <v>154776.79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -739,6 +786,9 @@
       <c r="E16" t="n">
         <v>20123.06</v>
       </c>
+      <c r="F16" t="n">
+        <v>23395.89</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -758,6 +808,9 @@
       <c r="E17" t="n">
         <v>30766.95</v>
       </c>
+      <c r="F17" t="n">
+        <v>32526.22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -776,6 +829,9 @@
       </c>
       <c r="E18" t="n">
         <v>450508.46</v>
+      </c>
+      <c r="F18" t="n">
+        <v>447976.29</v>
       </c>
     </row>
     <row r="19">
@@ -794,6 +850,9 @@
       <c r="E19" t="n">
         <v>299223.59</v>
       </c>
+      <c r="F19" t="n">
+        <v>287336.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -811,6 +870,9 @@
       <c r="E20" t="n">
         <v>112156.55</v>
       </c>
+      <c r="F20" t="n">
+        <v>124038.56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -828,6 +890,9 @@
       <c r="E21" t="n">
         <v>17827.49</v>
       </c>
+      <c r="F21" t="n">
+        <v>17843.6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -845,6 +910,9 @@
       <c r="E22" t="n">
         <v>77412.09</v>
       </c>
+      <c r="F22" t="n">
+        <v>76010.74000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -862,6 +930,9 @@
       <c r="E23" t="n">
         <v>229174.72</v>
       </c>
+      <c r="F23" t="n">
+        <v>215720.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -879,6 +950,9 @@
       <c r="E24" t="n">
         <v>35847.13</v>
       </c>
+      <c r="F24" t="n">
+        <v>35788.46</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -896,6 +970,9 @@
       <c r="E25" t="n">
         <v>133216.34</v>
       </c>
+      <c r="F25" t="n">
+        <v>137457.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -913,6 +990,9 @@
       <c r="E26" t="n">
         <v>126337.61</v>
       </c>
+      <c r="F26" t="n">
+        <v>126508.24</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -930,6 +1010,9 @@
       <c r="E27" t="n">
         <v>208228.75</v>
       </c>
+      <c r="F27" t="n">
+        <v>206761.29</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -949,6 +1032,9 @@
       <c r="E28" t="n">
         <v>137975.94</v>
       </c>
+      <c r="F28" t="n">
+        <v>138800.87</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -968,6 +1054,9 @@
       <c r="E29" t="n">
         <v>51637.68</v>
       </c>
+      <c r="F29" t="n">
+        <v>51627.87</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -987,6 +1076,9 @@
       <c r="E30" t="n">
         <v>550077.4399999999</v>
       </c>
+      <c r="F30" t="n">
+        <v>524985.6800000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1006,6 +1098,9 @@
       <c r="E31" t="n">
         <v>23368.06</v>
       </c>
+      <c r="F31" t="n">
+        <v>23366.56</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1025,6 +1120,9 @@
       <c r="E32" t="n">
         <v>4515.83</v>
       </c>
+      <c r="F32" t="n">
+        <v>4513.93</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1044,6 +1142,9 @@
       <c r="E33" t="n">
         <v>87402.08</v>
       </c>
+      <c r="F33" t="n">
+        <v>85417.88</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1063,6 +1164,9 @@
       <c r="E34" t="n">
         <v>105603.26</v>
       </c>
+      <c r="F34" t="n">
+        <v>105593.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1082,6 +1186,9 @@
       <c r="E35" t="n">
         <v>40184.05</v>
       </c>
+      <c r="F35" t="n">
+        <v>39806.23</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1101,6 +1208,9 @@
       <c r="E36" t="n">
         <v>28596.32</v>
       </c>
+      <c r="F36" t="n">
+        <v>28500.35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1120,6 +1230,9 @@
       <c r="E37" t="n">
         <v>15727.67</v>
       </c>
+      <c r="F37" t="n">
+        <v>15723.65</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1138,6 +1251,9 @@
       </c>
       <c r="E38" t="n">
         <v>21999.94</v>
+      </c>
+      <c r="F38" t="n">
+        <v>21387.63</v>
       </c>
     </row>
     <row r="39">
@@ -1156,6 +1272,9 @@
       <c r="E39" t="n">
         <v>59792.52</v>
       </c>
+      <c r="F39" t="n">
+        <v>59806.38</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1175,6 +1294,9 @@
       <c r="E40" t="n">
         <v>109860.13</v>
       </c>
+      <c r="F40" t="n">
+        <v>109831.47</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1194,6 +1316,9 @@
       <c r="E41" t="n">
         <v>40597.29</v>
       </c>
+      <c r="F41" t="n">
+        <v>40594.45</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1213,6 +1338,9 @@
       <c r="E42" t="n">
         <v>80972.5</v>
       </c>
+      <c r="F42" t="n">
+        <v>82094.33</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1232,6 +1360,9 @@
       <c r="E43" t="n">
         <v>52330.8</v>
       </c>
+      <c r="F43" t="n">
+        <v>56549.93</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1251,6 +1382,9 @@
       <c r="E44" t="n">
         <v>194262.67</v>
       </c>
+      <c r="F44" t="n">
+        <v>194194.32</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1270,6 +1404,9 @@
       <c r="E45" t="n">
         <v>248116.6</v>
       </c>
+      <c r="F45" t="n">
+        <v>248093.21</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1287,6 +1424,7 @@
         <v>653885.79</v>
       </c>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1306,6 +1444,9 @@
       <c r="E47" t="n">
         <v>143223.89</v>
       </c>
+      <c r="F47" t="n">
+        <v>143144.05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1325,6 +1466,9 @@
       <c r="E48" t="n">
         <v>30687.55</v>
       </c>
+      <c r="F48" t="n">
+        <v>30749.25</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1344,6 +1488,9 @@
       <c r="E49" t="n">
         <v>25875.39</v>
       </c>
+      <c r="F49" t="n">
+        <v>25877.38</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1361,6 +1508,7 @@
         <v>10946.96</v>
       </c>
       <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1380,6 +1528,9 @@
       <c r="E51" t="n">
         <v>106915.47</v>
       </c>
+      <c r="F51" t="n">
+        <v>106248.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1398,6 +1549,9 @@
       </c>
       <c r="E52" t="n">
         <v>5025027.29</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4993700.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>97886.47</v>
       </c>
+      <c r="G2" t="n">
+        <v>97872.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>177195.86</v>
       </c>
+      <c r="G3" t="n">
+        <v>175301</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>33007.63</v>
       </c>
+      <c r="G4" t="n">
+        <v>33042.02</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>36921.63</v>
       </c>
+      <c r="G5" t="n">
+        <v>36911.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>85789.78</v>
       </c>
+      <c r="G6" t="n">
+        <v>85818.61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>194744.21</v>
       </c>
+      <c r="G7" t="n">
+        <v>194774.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>95139.57000000001</v>
       </c>
+      <c r="G8" t="n">
+        <v>95158.86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>60749.04</v>
       </c>
+      <c r="G9" t="n">
+        <v>64307.81</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>1269.9</v>
       </c>
+      <c r="G10" t="n">
+        <v>2436.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>281002.56</v>
       </c>
+      <c r="G11" t="n">
+        <v>281142.54</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>8850.950000000001</v>
       </c>
+      <c r="G12" t="n">
+        <v>8850.77</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>451.35</v>
       </c>
+      <c r="G13" t="n">
+        <v>450.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>3892.82</v>
       </c>
+      <c r="G14" t="n">
+        <v>3894.24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -767,6 +811,9 @@
       <c r="F15" t="n">
         <v>154776.79</v>
       </c>
+      <c r="G15" t="n">
+        <v>154110.96</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -789,6 +836,9 @@
       <c r="F16" t="n">
         <v>23395.89</v>
       </c>
+      <c r="G16" t="n">
+        <v>23395.53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -811,6 +861,9 @@
       <c r="F17" t="n">
         <v>32526.22</v>
       </c>
+      <c r="G17" t="n">
+        <v>32536.97</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -832,6 +885,9 @@
       </c>
       <c r="F18" t="n">
         <v>447976.29</v>
+      </c>
+      <c r="G18" t="n">
+        <v>444993.43</v>
       </c>
     </row>
     <row r="19">
@@ -853,6 +909,9 @@
       <c r="F19" t="n">
         <v>287336.59</v>
       </c>
+      <c r="G19" t="n">
+        <v>287192.11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -873,6 +932,9 @@
       <c r="F20" t="n">
         <v>124038.56</v>
       </c>
+      <c r="G20" t="n">
+        <v>124076.53</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -893,6 +955,9 @@
       <c r="F21" t="n">
         <v>17843.6</v>
       </c>
+      <c r="G21" t="n">
+        <v>17848</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -913,6 +978,9 @@
       <c r="F22" t="n">
         <v>76010.74000000001</v>
       </c>
+      <c r="G22" t="n">
+        <v>72392.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -933,6 +1001,9 @@
       <c r="F23" t="n">
         <v>215720.1</v>
       </c>
+      <c r="G23" t="n">
+        <v>206361.13</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -953,6 +1024,9 @@
       <c r="F24" t="n">
         <v>35788.46</v>
       </c>
+      <c r="G24" t="n">
+        <v>35839.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -973,6 +1047,9 @@
       <c r="F25" t="n">
         <v>137457.6</v>
       </c>
+      <c r="G25" t="n">
+        <v>141409.92</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -993,6 +1070,9 @@
       <c r="F26" t="n">
         <v>126508.24</v>
       </c>
+      <c r="G26" t="n">
+        <v>129369.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1013,6 +1093,9 @@
       <c r="F27" t="n">
         <v>206761.29</v>
       </c>
+      <c r="G27" t="n">
+        <v>206809.41</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1035,6 +1118,9 @@
       <c r="F28" t="n">
         <v>138800.87</v>
       </c>
+      <c r="G28" t="n">
+        <v>142823.43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1057,6 +1143,9 @@
       <c r="F29" t="n">
         <v>51627.87</v>
       </c>
+      <c r="G29" t="n">
+        <v>51623.28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1079,6 +1168,9 @@
       <c r="F30" t="n">
         <v>524985.6800000001</v>
       </c>
+      <c r="G30" t="n">
+        <v>524917.26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1101,6 +1193,9 @@
       <c r="F31" t="n">
         <v>23366.56</v>
       </c>
+      <c r="G31" t="n">
+        <v>23371.38</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1123,6 +1218,9 @@
       <c r="F32" t="n">
         <v>4513.93</v>
       </c>
+      <c r="G32" t="n">
+        <v>4916.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1145,6 +1243,9 @@
       <c r="F33" t="n">
         <v>85417.88</v>
       </c>
+      <c r="G33" t="n">
+        <v>83405.27</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1167,6 +1268,9 @@
       <c r="F34" t="n">
         <v>105593.3</v>
       </c>
+      <c r="G34" t="n">
+        <v>109598.08</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1189,6 +1293,9 @@
       <c r="F35" t="n">
         <v>39806.23</v>
       </c>
+      <c r="G35" t="n">
+        <v>39796.01</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1211,6 +1318,9 @@
       <c r="F36" t="n">
         <v>28500.35</v>
       </c>
+      <c r="G36" t="n">
+        <v>29193.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1233,6 +1343,9 @@
       <c r="F37" t="n">
         <v>15723.65</v>
       </c>
+      <c r="G37" t="n">
+        <v>15724.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1254,6 +1367,9 @@
       </c>
       <c r="F38" t="n">
         <v>21387.63</v>
+      </c>
+      <c r="G38" t="n">
+        <v>23185.77</v>
       </c>
     </row>
     <row r="39">
@@ -1275,6 +1391,9 @@
       <c r="F39" t="n">
         <v>59806.38</v>
       </c>
+      <c r="G39" t="n">
+        <v>59790.22</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1297,6 +1416,9 @@
       <c r="F40" t="n">
         <v>109831.47</v>
       </c>
+      <c r="G40" t="n">
+        <v>114856.28</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1319,6 +1441,9 @@
       <c r="F41" t="n">
         <v>40594.45</v>
       </c>
+      <c r="G41" t="n">
+        <v>40604.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1341,6 +1466,9 @@
       <c r="F42" t="n">
         <v>82094.33</v>
       </c>
+      <c r="G42" t="n">
+        <v>80111.47</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1363,6 +1491,9 @@
       <c r="F43" t="n">
         <v>56549.93</v>
       </c>
+      <c r="G43" t="n">
+        <v>57194.26</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1385,6 +1516,9 @@
       <c r="F44" t="n">
         <v>194194.32</v>
       </c>
+      <c r="G44" t="n">
+        <v>194249.15</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1407,6 +1541,9 @@
       <c r="F45" t="n">
         <v>248093.21</v>
       </c>
+      <c r="G45" t="n">
+        <v>246877.39</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1425,6 +1562,7 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1447,6 +1585,9 @@
       <c r="F47" t="n">
         <v>143144.05</v>
       </c>
+      <c r="G47" t="n">
+        <v>152818.26</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1469,6 +1610,9 @@
       <c r="F48" t="n">
         <v>30749.25</v>
       </c>
+      <c r="G48" t="n">
+        <v>30727.94</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1491,6 +1635,9 @@
       <c r="F49" t="n">
         <v>25877.38</v>
       </c>
+      <c r="G49" t="n">
+        <v>25867.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1509,6 +1656,7 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1531,6 +1679,9 @@
       <c r="F51" t="n">
         <v>106248.95</v>
       </c>
+      <c r="G51" t="n">
+        <v>106552.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1552,6 +1703,9 @@
       </c>
       <c r="F52" t="n">
         <v>4993700.86</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5007948.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>97872.66</v>
       </c>
+      <c r="H2" t="n">
+        <v>92724.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>175301</v>
       </c>
+      <c r="H3" t="n">
+        <v>167277.79</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>33042.02</v>
       </c>
+      <c r="H4" t="n">
+        <v>33008.99</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>36911.15</v>
       </c>
+      <c r="H5" t="n">
+        <v>36911.92</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>85818.61</v>
       </c>
+      <c r="H6" t="n">
+        <v>85837.92</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>194774.08</v>
       </c>
+      <c r="H7" t="n">
+        <v>194792.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>95158.86</v>
       </c>
+      <c r="H8" t="n">
+        <v>95120</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>64307.81</v>
       </c>
+      <c r="H9" t="n">
+        <v>64318.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>2436.69</v>
       </c>
+      <c r="H10" t="n">
+        <v>2434.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>281142.54</v>
       </c>
+      <c r="H11" t="n">
+        <v>281037.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>8850.77</v>
       </c>
+      <c r="H12" t="n">
+        <v>8848.879999999999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>450.7</v>
       </c>
+      <c r="H13" t="n">
+        <v>450.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>3894.24</v>
       </c>
+      <c r="H14" t="n">
+        <v>3891.89</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>154110.96</v>
       </c>
+      <c r="H15" t="n">
+        <v>155110.16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -839,6 +886,9 @@
       <c r="G16" t="n">
         <v>23395.53</v>
       </c>
+      <c r="H16" t="n">
+        <v>23393.13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -864,6 +914,9 @@
       <c r="G17" t="n">
         <v>32536.97</v>
       </c>
+      <c r="H17" t="n">
+        <v>32508.49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -888,6 +941,9 @@
       </c>
       <c r="G18" t="n">
         <v>444993.43</v>
+      </c>
+      <c r="H18" t="n">
+        <v>442222.74</v>
       </c>
     </row>
     <row r="19">
@@ -912,6 +968,9 @@
       <c r="G19" t="n">
         <v>287192.11</v>
       </c>
+      <c r="H19" t="n">
+        <v>283852.74</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -935,6 +994,9 @@
       <c r="G20" t="n">
         <v>124076.53</v>
       </c>
+      <c r="H20" t="n">
+        <v>126145.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -958,6 +1020,9 @@
       <c r="G21" t="n">
         <v>17848</v>
       </c>
+      <c r="H21" t="n">
+        <v>17846.84</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -981,6 +1046,9 @@
       <c r="G22" t="n">
         <v>72392.3</v>
       </c>
+      <c r="H22" t="n">
+        <v>72376.09</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1004,6 +1072,9 @@
       <c r="G23" t="n">
         <v>206361.13</v>
       </c>
+      <c r="H23" t="n">
+        <v>206395.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1027,6 +1098,9 @@
       <c r="G24" t="n">
         <v>35839.95</v>
       </c>
+      <c r="H24" t="n">
+        <v>35827.92</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1050,6 +1124,9 @@
       <c r="G25" t="n">
         <v>141409.92</v>
       </c>
+      <c r="H25" t="n">
+        <v>149339.37</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1073,6 +1150,9 @@
       <c r="G26" t="n">
         <v>129369.2</v>
       </c>
+      <c r="H26" t="n">
+        <v>136528.16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1096,6 +1176,9 @@
       <c r="G27" t="n">
         <v>206809.41</v>
       </c>
+      <c r="H27" t="n">
+        <v>206811.12</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1121,6 +1204,9 @@
       <c r="G28" t="n">
         <v>142823.43</v>
       </c>
+      <c r="H28" t="n">
+        <v>142858.27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1146,6 +1232,9 @@
       <c r="G29" t="n">
         <v>51623.28</v>
       </c>
+      <c r="H29" t="n">
+        <v>51612.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1171,6 +1260,9 @@
       <c r="G30" t="n">
         <v>524917.26</v>
       </c>
+      <c r="H30" t="n">
+        <v>525015.26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1196,6 +1288,9 @@
       <c r="G31" t="n">
         <v>23371.38</v>
       </c>
+      <c r="H31" t="n">
+        <v>23373.14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1221,6 +1316,9 @@
       <c r="G32" t="n">
         <v>4916.14</v>
       </c>
+      <c r="H32" t="n">
+        <v>4915.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1246,6 +1344,9 @@
       <c r="G33" t="n">
         <v>83405.27</v>
       </c>
+      <c r="H33" t="n">
+        <v>81925.62</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1271,6 +1372,9 @@
       <c r="G34" t="n">
         <v>109598.08</v>
       </c>
+      <c r="H34" t="n">
+        <v>112586.88</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1296,6 +1400,9 @@
       <c r="G35" t="n">
         <v>39796.01</v>
       </c>
+      <c r="H35" t="n">
+        <v>47271.77</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1321,6 +1428,9 @@
       <c r="G36" t="n">
         <v>29193.95</v>
       </c>
+      <c r="H36" t="n">
+        <v>29191.58</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1346,6 +1456,9 @@
       <c r="G37" t="n">
         <v>15724.25</v>
       </c>
+      <c r="H37" t="n">
+        <v>15719.09</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1370,6 +1483,9 @@
       </c>
       <c r="G38" t="n">
         <v>23185.77</v>
+      </c>
+      <c r="H38" t="n">
+        <v>23193.75</v>
       </c>
     </row>
     <row r="39">
@@ -1394,6 +1510,9 @@
       <c r="G39" t="n">
         <v>59790.22</v>
       </c>
+      <c r="H39" t="n">
+        <v>59794.62</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1419,6 +1538,9 @@
       <c r="G40" t="n">
         <v>114856.28</v>
       </c>
+      <c r="H40" t="n">
+        <v>114819.19</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1444,6 +1566,9 @@
       <c r="G41" t="n">
         <v>40604.4</v>
       </c>
+      <c r="H41" t="n">
+        <v>42585.48</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1469,6 +1594,9 @@
       <c r="G42" t="n">
         <v>80111.47</v>
       </c>
+      <c r="H42" t="n">
+        <v>80092.84</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1494,6 +1622,9 @@
       <c r="G43" t="n">
         <v>57194.26</v>
       </c>
+      <c r="H43" t="n">
+        <v>57332.25</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1519,6 +1650,9 @@
       <c r="G44" t="n">
         <v>194249.15</v>
       </c>
+      <c r="H44" t="n">
+        <v>191440.28</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1543,6 +1677,9 @@
       </c>
       <c r="G45" t="n">
         <v>246877.39</v>
+      </c>
+      <c r="H45" t="n">
+        <v>247971.96</v>
       </c>
     </row>
     <row r="46">
@@ -1563,6 +1700,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1588,6 +1726,9 @@
       <c r="G47" t="n">
         <v>152818.26</v>
       </c>
+      <c r="H47" t="n">
+        <v>152811.07</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1613,6 +1754,9 @@
       <c r="G48" t="n">
         <v>30727.94</v>
       </c>
+      <c r="H48" t="n">
+        <v>30745.96</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1637,6 +1781,9 @@
       </c>
       <c r="G49" t="n">
         <v>25867.95</v>
+      </c>
+      <c r="H49" t="n">
+        <v>25869.05</v>
       </c>
     </row>
     <row r="50">
@@ -1657,6 +1804,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1682,6 +1830,9 @@
       <c r="G51" t="n">
         <v>106552.1</v>
       </c>
+      <c r="H51" t="n">
+        <v>106726.35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1706,6 +1857,9 @@
       </c>
       <c r="G52" t="n">
         <v>5007948.71</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5016138.37</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>92724.05</v>
       </c>
+      <c r="I2" t="n">
+        <v>80950.35000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>167277.79</v>
       </c>
+      <c r="I3" t="n">
+        <v>167265.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>33008.99</v>
       </c>
+      <c r="I4" t="n">
+        <v>33010.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>36911.92</v>
       </c>
+      <c r="I5" t="n">
+        <v>36915.87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>85837.92</v>
       </c>
+      <c r="I6" t="n">
+        <v>85808.31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>194792.44</v>
       </c>
+      <c r="I7" t="n">
+        <v>192391.88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>95120</v>
       </c>
+      <c r="I8" t="n">
+        <v>95116.53999999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>64318.15</v>
       </c>
+      <c r="I9" t="n">
+        <v>64317.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>2434.3</v>
       </c>
+      <c r="I10" t="n">
+        <v>2438.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>281037.31</v>
       </c>
+      <c r="I11" t="n">
+        <v>281200.82</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>8848.879999999999</v>
       </c>
+      <c r="I12" t="n">
+        <v>8850.35</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -805,6 +843,9 @@
       <c r="H13" t="n">
         <v>450.9</v>
       </c>
+      <c r="I13" t="n">
+        <v>450.91</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -833,6 +874,9 @@
       <c r="H14" t="n">
         <v>3891.89</v>
       </c>
+      <c r="I14" t="n">
+        <v>3892.58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -861,6 +905,9 @@
       <c r="H15" t="n">
         <v>155110.16</v>
       </c>
+      <c r="I15" t="n">
+        <v>155096.35</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -889,6 +936,9 @@
       <c r="H16" t="n">
         <v>23393.13</v>
       </c>
+      <c r="I16" t="n">
+        <v>23384.28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -917,6 +967,9 @@
       <c r="H17" t="n">
         <v>32508.49</v>
       </c>
+      <c r="I17" t="n">
+        <v>32536.88</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -944,6 +997,9 @@
       </c>
       <c r="H18" t="n">
         <v>442222.74</v>
+      </c>
+      <c r="I18" t="n">
+        <v>438885.51</v>
       </c>
     </row>
     <row r="19">
@@ -971,6 +1027,9 @@
       <c r="H19" t="n">
         <v>283852.74</v>
       </c>
+      <c r="I19" t="n">
+        <v>287382.84</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -997,6 +1056,9 @@
       <c r="H20" t="n">
         <v>126145.4</v>
       </c>
+      <c r="I20" t="n">
+        <v>122636.93</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1023,6 +1085,9 @@
       <c r="H21" t="n">
         <v>17846.84</v>
       </c>
+      <c r="I21" t="n">
+        <v>17841.27</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1049,6 +1114,9 @@
       <c r="H22" t="n">
         <v>72376.09</v>
       </c>
+      <c r="I22" t="n">
+        <v>72404.19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1075,6 +1143,9 @@
       <c r="H23" t="n">
         <v>206395.95</v>
       </c>
+      <c r="I23" t="n">
+        <v>206380.19</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1101,6 +1172,9 @@
       <c r="H24" t="n">
         <v>35827.92</v>
       </c>
+      <c r="I24" t="n">
+        <v>35822.42</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1127,6 +1201,9 @@
       <c r="H25" t="n">
         <v>149339.37</v>
       </c>
+      <c r="I25" t="n">
+        <v>146633.57</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1153,6 +1230,9 @@
       <c r="H26" t="n">
         <v>136528.16</v>
       </c>
+      <c r="I26" t="n">
+        <v>136196.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1179,6 +1259,9 @@
       <c r="H27" t="n">
         <v>206811.12</v>
       </c>
+      <c r="I27" t="n">
+        <v>204500.92</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1207,6 +1290,9 @@
       <c r="H28" t="n">
         <v>142858.27</v>
       </c>
+      <c r="I28" t="n">
+        <v>142816.61</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1235,6 +1321,9 @@
       <c r="H29" t="n">
         <v>51612.4</v>
       </c>
+      <c r="I29" t="n">
+        <v>51626.62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1263,6 +1352,9 @@
       <c r="H30" t="n">
         <v>525015.26</v>
       </c>
+      <c r="I30" t="n">
+        <v>524857.97</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1291,6 +1383,9 @@
       <c r="H31" t="n">
         <v>23373.14</v>
       </c>
+      <c r="I31" t="n">
+        <v>24375.27</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1319,6 +1414,9 @@
       <c r="H32" t="n">
         <v>4915.26</v>
       </c>
+      <c r="I32" t="n">
+        <v>4915.02</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1347,6 +1445,9 @@
       <c r="H33" t="n">
         <v>81925.62</v>
       </c>
+      <c r="I33" t="n">
+        <v>73404.06</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1375,6 +1476,9 @@
       <c r="H34" t="n">
         <v>112586.88</v>
       </c>
+      <c r="I34" t="n">
+        <v>111637.04</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1403,6 +1507,9 @@
       <c r="H35" t="n">
         <v>47271.77</v>
       </c>
+      <c r="I35" t="n">
+        <v>47270.26</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1431,6 +1538,9 @@
       <c r="H36" t="n">
         <v>29191.58</v>
       </c>
+      <c r="I36" t="n">
+        <v>29205.51</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1459,6 +1569,9 @@
       <c r="H37" t="n">
         <v>15719.09</v>
       </c>
+      <c r="I37" t="n">
+        <v>15718.14</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1486,6 +1599,9 @@
       </c>
       <c r="H38" t="n">
         <v>23193.75</v>
+      </c>
+      <c r="I38" t="n">
+        <v>23186.45</v>
       </c>
     </row>
     <row r="39">
@@ -1513,6 +1629,9 @@
       <c r="H39" t="n">
         <v>59794.62</v>
       </c>
+      <c r="I39" t="n">
+        <v>59808.13</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1541,6 +1660,9 @@
       <c r="H40" t="n">
         <v>114819.19</v>
       </c>
+      <c r="I40" t="n">
+        <v>114844.91</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1569,6 +1691,9 @@
       <c r="H41" t="n">
         <v>42585.48</v>
       </c>
+      <c r="I41" t="n">
+        <v>40598.85</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1597,6 +1722,9 @@
       <c r="H42" t="n">
         <v>80092.84</v>
       </c>
+      <c r="I42" t="n">
+        <v>80116.05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1625,6 +1753,9 @@
       <c r="H43" t="n">
         <v>57332.25</v>
       </c>
+      <c r="I43" t="n">
+        <v>57341.02</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1653,6 +1784,9 @@
       <c r="H44" t="n">
         <v>191440.28</v>
       </c>
+      <c r="I44" t="n">
+        <v>191498.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1680,6 +1814,9 @@
       </c>
       <c r="H45" t="n">
         <v>247971.96</v>
+      </c>
+      <c r="I45" t="n">
+        <v>247297.04</v>
       </c>
     </row>
     <row r="46">
@@ -1701,6 +1838,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1729,6 +1867,9 @@
       <c r="H47" t="n">
         <v>152811.07</v>
       </c>
+      <c r="I47" t="n">
+        <v>176061.66</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1757,6 +1898,9 @@
       <c r="H48" t="n">
         <v>30745.96</v>
       </c>
+      <c r="I48" t="n">
+        <v>30682.43</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1784,6 +1928,9 @@
       </c>
       <c r="H49" t="n">
         <v>25869.05</v>
+      </c>
+      <c r="I49" t="n">
+        <v>25872.47</v>
       </c>
     </row>
     <row r="50">
@@ -1805,6 +1952,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1833,6 +1981,9 @@
       <c r="H51" t="n">
         <v>106726.35</v>
       </c>
+      <c r="I51" t="n">
+        <v>106498.85</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1860,6 +2011,9 @@
       </c>
       <c r="H52" t="n">
         <v>5016138.37</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5005445.99</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>80950.35000000001</v>
       </c>
+      <c r="J2" t="n">
+        <v>78388.97</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>167265.25</v>
       </c>
+      <c r="J3" t="n">
+        <v>173696.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>33010.89</v>
       </c>
+      <c r="J4" t="n">
+        <v>33072.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>36915.87</v>
       </c>
+      <c r="J5" t="n">
+        <v>36912.18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>85808.31</v>
       </c>
+      <c r="J6" t="n">
+        <v>85821.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>192391.88</v>
       </c>
+      <c r="J7" t="n">
+        <v>182196.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>95116.53999999999</v>
       </c>
+      <c r="J8" t="n">
+        <v>95122.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>64317.18</v>
       </c>
+      <c r="J9" t="n">
+        <v>64301.72</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>2438.3</v>
       </c>
+      <c r="J10" t="n">
+        <v>2440.18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>281200.82</v>
       </c>
+      <c r="J11" t="n">
+        <v>281087.59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>8850.35</v>
       </c>
+      <c r="J12" t="n">
+        <v>8811.620000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>450.91</v>
       </c>
+      <c r="J13" t="n">
+        <v>451.21</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -877,6 +918,9 @@
       <c r="I14" t="n">
         <v>3892.58</v>
       </c>
+      <c r="J14" t="n">
+        <v>3893.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -908,6 +952,9 @@
       <c r="I15" t="n">
         <v>155096.35</v>
       </c>
+      <c r="J15" t="n">
+        <v>152178.24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -939,6 +986,9 @@
       <c r="I16" t="n">
         <v>23384.28</v>
       </c>
+      <c r="J16" t="n">
+        <v>23387.97</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -970,6 +1020,9 @@
       <c r="I17" t="n">
         <v>32536.88</v>
       </c>
+      <c r="J17" t="n">
+        <v>32535.98</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1000,6 +1053,9 @@
       </c>
       <c r="I18" t="n">
         <v>438885.51</v>
+      </c>
+      <c r="J18" t="n">
+        <v>433477.91</v>
       </c>
     </row>
     <row r="19">
@@ -1030,6 +1086,9 @@
       <c r="I19" t="n">
         <v>287382.84</v>
       </c>
+      <c r="J19" t="n">
+        <v>287817.68</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1059,6 +1118,9 @@
       <c r="I20" t="n">
         <v>122636.93</v>
       </c>
+      <c r="J20" t="n">
+        <v>116656.91</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1088,6 +1150,9 @@
       <c r="I21" t="n">
         <v>17841.27</v>
       </c>
+      <c r="J21" t="n">
+        <v>17841.58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1117,6 +1182,9 @@
       <c r="I22" t="n">
         <v>72404.19</v>
       </c>
+      <c r="J22" t="n">
+        <v>68958.35000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1146,6 +1214,9 @@
       <c r="I23" t="n">
         <v>206380.19</v>
       </c>
+      <c r="J23" t="n">
+        <v>206369.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1175,6 +1246,9 @@
       <c r="I24" t="n">
         <v>35822.42</v>
       </c>
+      <c r="J24" t="n">
+        <v>35860.06</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1204,6 +1278,9 @@
       <c r="I25" t="n">
         <v>146633.57</v>
       </c>
+      <c r="J25" t="n">
+        <v>145660.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1233,6 +1310,9 @@
       <c r="I26" t="n">
         <v>136196.95</v>
       </c>
+      <c r="J26" t="n">
+        <v>135042.13</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1262,6 +1342,9 @@
       <c r="I27" t="n">
         <v>204500.92</v>
       </c>
+      <c r="J27" t="n">
+        <v>202079.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1293,6 +1376,9 @@
       <c r="I28" t="n">
         <v>142816.61</v>
       </c>
+      <c r="J28" t="n">
+        <v>142804.23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1324,6 +1410,9 @@
       <c r="I29" t="n">
         <v>51626.62</v>
       </c>
+      <c r="J29" t="n">
+        <v>51624.28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1355,6 +1444,9 @@
       <c r="I30" t="n">
         <v>524857.97</v>
       </c>
+      <c r="J30" t="n">
+        <v>524988.67</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1386,6 +1478,9 @@
       <c r="I31" t="n">
         <v>24375.27</v>
       </c>
+      <c r="J31" t="n">
+        <v>24365.96</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1417,6 +1512,9 @@
       <c r="I32" t="n">
         <v>4915.02</v>
       </c>
+      <c r="J32" t="n">
+        <v>4913.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1448,6 +1546,9 @@
       <c r="I33" t="n">
         <v>73404.06</v>
       </c>
+      <c r="J33" t="n">
+        <v>70908.88</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1479,6 +1580,9 @@
       <c r="I34" t="n">
         <v>111637.04</v>
       </c>
+      <c r="J34" t="n">
+        <v>111632.03</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1510,6 +1614,9 @@
       <c r="I35" t="n">
         <v>47270.26</v>
       </c>
+      <c r="J35" t="n">
+        <v>47289.79</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1541,6 +1648,9 @@
       <c r="I36" t="n">
         <v>29205.51</v>
       </c>
+      <c r="J36" t="n">
+        <v>29005.49</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1572,6 +1682,9 @@
       <c r="I37" t="n">
         <v>15718.14</v>
       </c>
+      <c r="J37" t="n">
+        <v>15726.42</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1602,6 +1715,9 @@
       </c>
       <c r="I38" t="n">
         <v>23186.45</v>
+      </c>
+      <c r="J38" t="n">
+        <v>23191.49</v>
       </c>
     </row>
     <row r="39">
@@ -1632,6 +1748,9 @@
       <c r="I39" t="n">
         <v>59808.13</v>
       </c>
+      <c r="J39" t="n">
+        <v>59786.09</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1663,6 +1782,9 @@
       <c r="I40" t="n">
         <v>114844.91</v>
       </c>
+      <c r="J40" t="n">
+        <v>114826.97</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1694,6 +1816,9 @@
       <c r="I41" t="n">
         <v>40598.85</v>
       </c>
+      <c r="J41" t="n">
+        <v>43102.11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1725,6 +1850,9 @@
       <c r="I42" t="n">
         <v>80116.05</v>
       </c>
+      <c r="J42" t="n">
+        <v>80099.52</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1756,6 +1884,9 @@
       <c r="I43" t="n">
         <v>57341.02</v>
       </c>
+      <c r="J43" t="n">
+        <v>57341.81</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1787,6 +1918,9 @@
       <c r="I44" t="n">
         <v>191498.95</v>
       </c>
+      <c r="J44" t="n">
+        <v>191440.7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1817,6 +1951,9 @@
       </c>
       <c r="I45" t="n">
         <v>247297.04</v>
+      </c>
+      <c r="J45" t="n">
+        <v>248111.12</v>
       </c>
     </row>
     <row r="46">
@@ -1839,6 +1976,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1870,6 +2008,9 @@
       <c r="I47" t="n">
         <v>176061.66</v>
       </c>
+      <c r="J47" t="n">
+        <v>176178.6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1901,6 +2042,9 @@
       <c r="I48" t="n">
         <v>30682.43</v>
       </c>
+      <c r="J48" t="n">
+        <v>30708.22</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1931,6 +2075,9 @@
       </c>
       <c r="I49" t="n">
         <v>25872.47</v>
+      </c>
+      <c r="J49" t="n">
+        <v>25868.14</v>
       </c>
     </row>
     <row r="50">
@@ -1953,6 +2100,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1984,6 +2132,9 @@
       <c r="I51" t="n">
         <v>106498.85</v>
       </c>
+      <c r="J51" t="n">
+        <v>105914.38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2014,6 +2165,9 @@
       </c>
       <c r="I52" t="n">
         <v>5005445.99</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4977976.06</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>78388.97</v>
       </c>
+      <c r="K2" t="n">
+        <v>73928.33</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>173696.6</v>
       </c>
+      <c r="K3" t="n">
+        <v>169862.78</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>33072.2</v>
       </c>
+      <c r="K4" t="n">
+        <v>33022.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>36912.18</v>
       </c>
+      <c r="K5" t="n">
+        <v>37365.21</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>85821.95</v>
       </c>
+      <c r="K6" t="n">
+        <v>85797.71000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>182196.28</v>
       </c>
+      <c r="K7" t="n">
+        <v>173836.31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>95122.09</v>
       </c>
+      <c r="K8" t="n">
+        <v>95121.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>64301.72</v>
       </c>
+      <c r="K9" t="n">
+        <v>64305.41</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>2440.18</v>
       </c>
+      <c r="K10" t="n">
+        <v>1733.88</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>281087.59</v>
       </c>
+      <c r="K11" t="n">
+        <v>280994.75</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>8811.620000000001</v>
       </c>
+      <c r="K12" t="n">
+        <v>1053.21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>451.21</v>
       </c>
+      <c r="K13" t="n">
+        <v>451.26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>3893.85</v>
       </c>
+      <c r="K14" t="n">
+        <v>3894.88</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -955,6 +999,9 @@
       <c r="J15" t="n">
         <v>152178.24</v>
       </c>
+      <c r="K15" t="n">
+        <v>152426.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -989,6 +1036,9 @@
       <c r="J16" t="n">
         <v>23387.97</v>
       </c>
+      <c r="K16" t="n">
+        <v>23389.81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1023,6 +1073,9 @@
       <c r="J17" t="n">
         <v>32535.98</v>
       </c>
+      <c r="K17" t="n">
+        <v>32525.51</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1056,6 +1109,9 @@
       </c>
       <c r="J18" t="n">
         <v>433477.91</v>
+      </c>
+      <c r="K18" t="n">
+        <v>430966.86</v>
       </c>
     </row>
     <row r="19">
@@ -1089,6 +1145,9 @@
       <c r="J19" t="n">
         <v>287817.68</v>
       </c>
+      <c r="K19" t="n">
+        <v>276037.99</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1121,6 +1180,9 @@
       <c r="J20" t="n">
         <v>116656.91</v>
       </c>
+      <c r="K20" t="n">
+        <v>116627.74</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1153,6 +1215,9 @@
       <c r="J21" t="n">
         <v>17841.58</v>
       </c>
+      <c r="K21" t="n">
+        <v>17829.71</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1185,6 +1250,9 @@
       <c r="J22" t="n">
         <v>68958.35000000001</v>
       </c>
+      <c r="K22" t="n">
+        <v>67497.62</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1217,6 +1285,9 @@
       <c r="J23" t="n">
         <v>206369.3</v>
       </c>
+      <c r="K23" t="n">
+        <v>206418.61</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1249,6 +1320,9 @@
       <c r="J24" t="n">
         <v>35860.06</v>
       </c>
+      <c r="K24" t="n">
+        <v>35814.79</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1281,6 +1355,9 @@
       <c r="J25" t="n">
         <v>145660.1</v>
       </c>
+      <c r="K25" t="n">
+        <v>140331.54</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1313,6 +1390,9 @@
       <c r="J26" t="n">
         <v>135042.13</v>
       </c>
+      <c r="K26" t="n">
+        <v>135065.26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1345,6 +1425,9 @@
       <c r="J27" t="n">
         <v>202079.09</v>
       </c>
+      <c r="K27" t="n">
+        <v>202132.13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1379,6 +1462,9 @@
       <c r="J28" t="n">
         <v>142804.23</v>
       </c>
+      <c r="K28" t="n">
+        <v>152842.6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1413,6 +1499,9 @@
       <c r="J29" t="n">
         <v>51624.28</v>
       </c>
+      <c r="K29" t="n">
+        <v>51629.65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1447,6 +1536,9 @@
       <c r="J30" t="n">
         <v>524988.67</v>
       </c>
+      <c r="K30" t="n">
+        <v>500159.77</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1481,6 +1573,9 @@
       <c r="J31" t="n">
         <v>24365.96</v>
       </c>
+      <c r="K31" t="n">
+        <v>24370.77</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1515,6 +1610,9 @@
       <c r="J32" t="n">
         <v>4913.8</v>
       </c>
+      <c r="K32" t="n">
+        <v>4915.43</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1549,6 +1647,9 @@
       <c r="J33" t="n">
         <v>70908.88</v>
       </c>
+      <c r="K33" t="n">
+        <v>68923.34</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1583,6 +1684,9 @@
       <c r="J34" t="n">
         <v>111632.03</v>
       </c>
+      <c r="K34" t="n">
+        <v>114622.72</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1617,6 +1721,9 @@
       <c r="J35" t="n">
         <v>47289.79</v>
       </c>
+      <c r="K35" t="n">
+        <v>47283.17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1651,6 +1758,9 @@
       <c r="J36" t="n">
         <v>29005.49</v>
       </c>
+      <c r="K36" t="n">
+        <v>27925.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1685,6 +1795,9 @@
       <c r="J37" t="n">
         <v>15726.42</v>
       </c>
+      <c r="K37" t="n">
+        <v>15729.27</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1718,6 +1831,9 @@
       </c>
       <c r="J38" t="n">
         <v>23191.49</v>
+      </c>
+      <c r="K38" t="n">
+        <v>23191.57</v>
       </c>
     </row>
     <row r="39">
@@ -1751,6 +1867,9 @@
       <c r="J39" t="n">
         <v>59786.09</v>
       </c>
+      <c r="K39" t="n">
+        <v>59797.46</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1785,6 +1904,9 @@
       <c r="J40" t="n">
         <v>114826.97</v>
       </c>
+      <c r="K40" t="n">
+        <v>108259.64</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1819,6 +1941,9 @@
       <c r="J41" t="n">
         <v>43102.11</v>
       </c>
+      <c r="K41" t="n">
+        <v>40100.15</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1853,6 +1978,9 @@
       <c r="J42" t="n">
         <v>80099.52</v>
       </c>
+      <c r="K42" t="n">
+        <v>80091.89999999999</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1887,6 +2015,9 @@
       <c r="J43" t="n">
         <v>57341.81</v>
       </c>
+      <c r="K43" t="n">
+        <v>57331.42</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1921,6 +2052,9 @@
       <c r="J44" t="n">
         <v>191440.7</v>
       </c>
+      <c r="K44" t="n">
+        <v>191470.62</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1954,6 +2088,9 @@
       </c>
       <c r="J45" t="n">
         <v>248111.12</v>
+      </c>
+      <c r="K45" t="n">
+        <v>248065.77</v>
       </c>
     </row>
     <row r="46">
@@ -1977,6 +2114,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2011,6 +2149,9 @@
       <c r="J47" t="n">
         <v>176178.6</v>
       </c>
+      <c r="K47" t="n">
+        <v>176013.09</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2045,6 +2186,9 @@
       <c r="J48" t="n">
         <v>30708.22</v>
       </c>
+      <c r="K48" t="n">
+        <v>30758.08</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2078,6 +2222,9 @@
       </c>
       <c r="J49" t="n">
         <v>25868.14</v>
+      </c>
+      <c r="K49" t="n">
+        <v>25872.51</v>
       </c>
     </row>
     <row r="50">
@@ -2101,6 +2248,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2135,6 +2283,9 @@
       <c r="J51" t="n">
         <v>105914.38</v>
       </c>
+      <c r="K51" t="n">
+        <v>104420.99</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2168,6 +2319,9 @@
       </c>
       <c r="J52" t="n">
         <v>4977976.06</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4907786.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>73928.33</v>
       </c>
+      <c r="L2" t="n">
+        <v>73932.32000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>169862.78</v>
       </c>
+      <c r="L3" t="n">
+        <v>173529.32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>33022.19</v>
       </c>
+      <c r="L4" t="n">
+        <v>30001.94</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>37365.21</v>
       </c>
+      <c r="L5" t="n">
+        <v>37365.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>85797.71000000001</v>
       </c>
+      <c r="L6" t="n">
+        <v>85790.00999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>173836.31</v>
       </c>
+      <c r="L7" t="n">
+        <v>162313.31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>95121.7</v>
       </c>
+      <c r="L8" t="n">
+        <v>95157.57000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>64305.41</v>
       </c>
+      <c r="L9" t="n">
+        <v>61677.19</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>1733.88</v>
       </c>
+      <c r="L10" t="n">
+        <v>1737.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>280994.75</v>
       </c>
+      <c r="L11" t="n">
+        <v>281112.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>1053.21</v>
       </c>
+      <c r="L12" t="n">
+        <v>1053.09</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>451.26</v>
       </c>
+      <c r="L13" t="n">
+        <v>451.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -965,6 +1006,9 @@
       <c r="K14" t="n">
         <v>3894.88</v>
       </c>
+      <c r="L14" t="n">
+        <v>3890.85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1002,6 +1046,9 @@
       <c r="K15" t="n">
         <v>152426.8</v>
       </c>
+      <c r="L15" t="n">
+        <v>147818.93</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1039,6 +1086,9 @@
       <c r="K16" t="n">
         <v>23389.81</v>
       </c>
+      <c r="L16" t="n">
+        <v>23384.68</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1076,6 +1126,9 @@
       <c r="K17" t="n">
         <v>32525.51</v>
       </c>
+      <c r="L17" t="n">
+        <v>32530.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1113,1215 +1166,1336 @@
       <c r="K18" t="n">
         <v>430966.86</v>
       </c>
+      <c r="L18" t="n">
+        <v>430132.69</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>299078.34</v>
-      </c>
+          <t>Compass Crecimiento II</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>299077.45</v>
-      </c>
-      <c r="E19" t="n">
-        <v>299223.59</v>
-      </c>
-      <c r="F19" t="n">
-        <v>287336.59</v>
-      </c>
-      <c r="G19" t="n">
-        <v>287192.11</v>
-      </c>
-      <c r="H19" t="n">
-        <v>283852.74</v>
-      </c>
-      <c r="I19" t="n">
-        <v>287382.84</v>
-      </c>
-      <c r="J19" t="n">
-        <v>287817.68</v>
-      </c>
-      <c r="K19" t="n">
-        <v>276037.99</v>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>269.42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>104654.6</v>
+        <v>299078.34</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>112184.64</v>
+        <v>299077.45</v>
       </c>
       <c r="E20" t="n">
-        <v>112156.55</v>
+        <v>299223.59</v>
       </c>
       <c r="F20" t="n">
-        <v>124038.56</v>
+        <v>287336.59</v>
       </c>
       <c r="G20" t="n">
-        <v>124076.53</v>
+        <v>287192.11</v>
       </c>
       <c r="H20" t="n">
-        <v>126145.4</v>
+        <v>283852.74</v>
       </c>
       <c r="I20" t="n">
-        <v>122636.93</v>
+        <v>287382.84</v>
       </c>
       <c r="J20" t="n">
-        <v>116656.91</v>
+        <v>287817.68</v>
       </c>
       <c r="K20" t="n">
-        <v>116627.74</v>
+        <v>276037.99</v>
+      </c>
+      <c r="L20" t="n">
+        <v>276006.89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17825.12</v>
+        <v>104654.6</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>17846.52</v>
+        <v>112184.64</v>
       </c>
       <c r="E21" t="n">
-        <v>17827.49</v>
+        <v>112156.55</v>
       </c>
       <c r="F21" t="n">
-        <v>17843.6</v>
+        <v>124038.56</v>
       </c>
       <c r="G21" t="n">
-        <v>17848</v>
+        <v>124076.53</v>
       </c>
       <c r="H21" t="n">
-        <v>17846.84</v>
+        <v>126145.4</v>
       </c>
       <c r="I21" t="n">
-        <v>17841.27</v>
+        <v>122636.93</v>
       </c>
       <c r="J21" t="n">
-        <v>17841.58</v>
+        <v>116656.91</v>
       </c>
       <c r="K21" t="n">
-        <v>17829.71</v>
+        <v>116627.74</v>
+      </c>
+      <c r="L21" t="n">
+        <v>116650.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85191.82000000001</v>
+        <v>17825.12</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>79633.19</v>
+        <v>17846.52</v>
       </c>
       <c r="E22" t="n">
-        <v>77412.09</v>
+        <v>17827.49</v>
       </c>
       <c r="F22" t="n">
-        <v>76010.74000000001</v>
+        <v>17843.6</v>
       </c>
       <c r="G22" t="n">
-        <v>72392.3</v>
+        <v>17848</v>
       </c>
       <c r="H22" t="n">
-        <v>72376.09</v>
+        <v>17846.84</v>
       </c>
       <c r="I22" t="n">
-        <v>72404.19</v>
+        <v>17841.27</v>
       </c>
       <c r="J22" t="n">
-        <v>68958.35000000001</v>
+        <v>17841.58</v>
       </c>
       <c r="K22" t="n">
-        <v>67497.62</v>
+        <v>17829.71</v>
+      </c>
+      <c r="L22" t="n">
+        <v>17847.54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>236715.38</v>
+        <v>85191.82000000001</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>233367.54</v>
+        <v>79633.19</v>
       </c>
       <c r="E23" t="n">
-        <v>229174.72</v>
+        <v>77412.09</v>
       </c>
       <c r="F23" t="n">
-        <v>215720.1</v>
+        <v>76010.74000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>206361.13</v>
+        <v>72392.3</v>
       </c>
       <c r="H23" t="n">
-        <v>206395.95</v>
+        <v>72376.09</v>
       </c>
       <c r="I23" t="n">
-        <v>206380.19</v>
+        <v>72404.19</v>
       </c>
       <c r="J23" t="n">
-        <v>206369.3</v>
+        <v>68958.35000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>206418.61</v>
+        <v>67497.62</v>
+      </c>
+      <c r="L23" t="n">
+        <v>64281.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35857.41</v>
+        <v>236715.38</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>35801.2</v>
+        <v>233367.54</v>
       </c>
       <c r="E24" t="n">
-        <v>35847.13</v>
+        <v>229174.72</v>
       </c>
       <c r="F24" t="n">
-        <v>35788.46</v>
+        <v>215720.1</v>
       </c>
       <c r="G24" t="n">
-        <v>35839.95</v>
+        <v>206361.13</v>
       </c>
       <c r="H24" t="n">
-        <v>35827.92</v>
+        <v>206395.95</v>
       </c>
       <c r="I24" t="n">
-        <v>35822.42</v>
+        <v>206380.19</v>
       </c>
       <c r="J24" t="n">
-        <v>35860.06</v>
+        <v>206369.3</v>
       </c>
       <c r="K24" t="n">
-        <v>35814.79</v>
+        <v>206418.61</v>
+      </c>
+      <c r="L24" t="n">
+        <v>206453.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122389.53</v>
+        <v>35857.41</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>120943.03</v>
+        <v>35801.2</v>
       </c>
       <c r="E25" t="n">
-        <v>133216.34</v>
+        <v>35847.13</v>
       </c>
       <c r="F25" t="n">
-        <v>137457.6</v>
+        <v>35788.46</v>
       </c>
       <c r="G25" t="n">
-        <v>141409.92</v>
+        <v>35839.95</v>
       </c>
       <c r="H25" t="n">
-        <v>149339.37</v>
+        <v>35827.92</v>
       </c>
       <c r="I25" t="n">
-        <v>146633.57</v>
+        <v>35822.42</v>
       </c>
       <c r="J25" t="n">
-        <v>145660.1</v>
+        <v>35860.06</v>
       </c>
       <c r="K25" t="n">
-        <v>140331.54</v>
+        <v>35814.79</v>
+      </c>
+      <c r="L25" t="n">
+        <v>35798.81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>120543.2</v>
+        <v>122389.53</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>123892.09</v>
+        <v>120943.03</v>
       </c>
       <c r="E26" t="n">
-        <v>126337.61</v>
+        <v>133216.34</v>
       </c>
       <c r="F26" t="n">
-        <v>126508.24</v>
+        <v>137457.6</v>
       </c>
       <c r="G26" t="n">
-        <v>129369.2</v>
+        <v>141409.92</v>
       </c>
       <c r="H26" t="n">
-        <v>136528.16</v>
+        <v>149339.37</v>
       </c>
       <c r="I26" t="n">
-        <v>136196.95</v>
+        <v>146633.57</v>
       </c>
       <c r="J26" t="n">
-        <v>135042.13</v>
+        <v>145660.1</v>
       </c>
       <c r="K26" t="n">
-        <v>135065.26</v>
+        <v>140331.54</v>
+      </c>
+      <c r="L26" t="n">
+        <v>139228.62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196570.7</v>
+        <v>120543.2</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>185807.2</v>
+        <v>123892.09</v>
       </c>
       <c r="E27" t="n">
-        <v>208228.75</v>
+        <v>126337.61</v>
       </c>
       <c r="F27" t="n">
-        <v>206761.29</v>
+        <v>126508.24</v>
       </c>
       <c r="G27" t="n">
-        <v>206809.41</v>
+        <v>129369.2</v>
       </c>
       <c r="H27" t="n">
-        <v>206811.12</v>
+        <v>136528.16</v>
       </c>
       <c r="I27" t="n">
-        <v>204500.92</v>
+        <v>136196.95</v>
       </c>
       <c r="J27" t="n">
-        <v>202079.09</v>
+        <v>135042.13</v>
       </c>
       <c r="K27" t="n">
-        <v>202132.13</v>
+        <v>135065.26</v>
+      </c>
+      <c r="L27" t="n">
+        <v>132139.32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128858.05</v>
-      </c>
-      <c r="C28" t="n">
-        <v>121976.55</v>
-      </c>
+        <v>196570.7</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>126962.49</v>
+        <v>185807.2</v>
       </c>
       <c r="E28" t="n">
-        <v>137975.94</v>
+        <v>208228.75</v>
       </c>
       <c r="F28" t="n">
-        <v>138800.87</v>
+        <v>206761.29</v>
       </c>
       <c r="G28" t="n">
-        <v>142823.43</v>
+        <v>206809.41</v>
       </c>
       <c r="H28" t="n">
-        <v>142858.27</v>
+        <v>206811.12</v>
       </c>
       <c r="I28" t="n">
-        <v>142816.61</v>
+        <v>204500.92</v>
       </c>
       <c r="J28" t="n">
-        <v>142804.23</v>
+        <v>202079.09</v>
       </c>
       <c r="K28" t="n">
-        <v>152842.6</v>
+        <v>202132.13</v>
+      </c>
+      <c r="L28" t="n">
+        <v>196184.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>71116.75</v>
+        <v>128858.05</v>
       </c>
       <c r="C29" t="n">
-        <v>71086.22</v>
+        <v>121976.55</v>
       </c>
       <c r="D29" t="n">
-        <v>62846.99</v>
+        <v>126962.49</v>
       </c>
       <c r="E29" t="n">
-        <v>51637.68</v>
+        <v>137975.94</v>
       </c>
       <c r="F29" t="n">
-        <v>51627.87</v>
+        <v>138800.87</v>
       </c>
       <c r="G29" t="n">
-        <v>51623.28</v>
+        <v>142823.43</v>
       </c>
       <c r="H29" t="n">
-        <v>51612.4</v>
+        <v>142858.27</v>
       </c>
       <c r="I29" t="n">
-        <v>51626.62</v>
+        <v>142816.61</v>
       </c>
       <c r="J29" t="n">
-        <v>51624.28</v>
+        <v>142804.23</v>
       </c>
       <c r="K29" t="n">
-        <v>51629.65</v>
+        <v>152842.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>151325.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>540169.14</v>
+        <v>71116.75</v>
       </c>
       <c r="C30" t="n">
-        <v>550171.0699999999</v>
+        <v>71086.22</v>
       </c>
       <c r="D30" t="n">
-        <v>550020.61</v>
+        <v>62846.99</v>
       </c>
       <c r="E30" t="n">
-        <v>550077.4399999999</v>
+        <v>51637.68</v>
       </c>
       <c r="F30" t="n">
-        <v>524985.6800000001</v>
+        <v>51627.87</v>
       </c>
       <c r="G30" t="n">
-        <v>524917.26</v>
+        <v>51623.28</v>
       </c>
       <c r="H30" t="n">
-        <v>525015.26</v>
+        <v>51612.4</v>
       </c>
       <c r="I30" t="n">
-        <v>524857.97</v>
+        <v>51626.62</v>
       </c>
       <c r="J30" t="n">
-        <v>524988.67</v>
+        <v>51624.28</v>
       </c>
       <c r="K30" t="n">
-        <v>500159.77</v>
+        <v>51629.65</v>
+      </c>
+      <c r="L30" t="n">
+        <v>51622.97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26072.86</v>
+        <v>540169.14</v>
       </c>
       <c r="C31" t="n">
-        <v>26066.84</v>
+        <v>550171.0699999999</v>
       </c>
       <c r="D31" t="n">
-        <v>23565.37</v>
+        <v>550020.61</v>
       </c>
       <c r="E31" t="n">
-        <v>23368.06</v>
+        <v>550077.4399999999</v>
       </c>
       <c r="F31" t="n">
-        <v>23366.56</v>
+        <v>524985.6800000001</v>
       </c>
       <c r="G31" t="n">
-        <v>23371.38</v>
+        <v>524917.26</v>
       </c>
       <c r="H31" t="n">
-        <v>23373.14</v>
+        <v>525015.26</v>
       </c>
       <c r="I31" t="n">
-        <v>24375.27</v>
+        <v>524857.97</v>
       </c>
       <c r="J31" t="n">
-        <v>24365.96</v>
+        <v>524988.67</v>
       </c>
       <c r="K31" t="n">
-        <v>24370.77</v>
+        <v>500159.77</v>
+      </c>
+      <c r="L31" t="n">
+        <v>499975.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4065.63</v>
+        <v>26072.86</v>
       </c>
       <c r="C32" t="n">
-        <v>4066.04</v>
+        <v>26066.84</v>
       </c>
       <c r="D32" t="n">
-        <v>4066.06</v>
+        <v>23565.37</v>
       </c>
       <c r="E32" t="n">
-        <v>4515.83</v>
+        <v>23368.06</v>
       </c>
       <c r="F32" t="n">
-        <v>4513.93</v>
+        <v>23366.56</v>
       </c>
       <c r="G32" t="n">
-        <v>4916.14</v>
+        <v>23371.38</v>
       </c>
       <c r="H32" t="n">
-        <v>4915.26</v>
+        <v>23373.14</v>
       </c>
       <c r="I32" t="n">
-        <v>4915.02</v>
+        <v>24375.27</v>
       </c>
       <c r="J32" t="n">
-        <v>4913.8</v>
+        <v>24365.96</v>
       </c>
       <c r="K32" t="n">
-        <v>4915.43</v>
+        <v>24370.77</v>
+      </c>
+      <c r="L32" t="n">
+        <v>22774.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>88625.83</v>
+        <v>4065.63</v>
       </c>
       <c r="C33" t="n">
-        <v>90634.21000000001</v>
+        <v>4066.04</v>
       </c>
       <c r="D33" t="n">
-        <v>89422.64</v>
+        <v>4066.06</v>
       </c>
       <c r="E33" t="n">
-        <v>87402.08</v>
+        <v>4515.83</v>
       </c>
       <c r="F33" t="n">
-        <v>85417.88</v>
+        <v>4513.93</v>
       </c>
       <c r="G33" t="n">
-        <v>83405.27</v>
+        <v>4916.14</v>
       </c>
       <c r="H33" t="n">
-        <v>81925.62</v>
+        <v>4915.26</v>
       </c>
       <c r="I33" t="n">
-        <v>73404.06</v>
+        <v>4915.02</v>
       </c>
       <c r="J33" t="n">
-        <v>70908.88</v>
+        <v>4913.8</v>
       </c>
       <c r="K33" t="n">
-        <v>68923.34</v>
+        <v>4915.43</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4915.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>137116.83</v>
+        <v>88625.83</v>
       </c>
       <c r="C34" t="n">
-        <v>139635.16</v>
+        <v>90634.21000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>103133.48</v>
+        <v>89422.64</v>
       </c>
       <c r="E34" t="n">
-        <v>105603.26</v>
+        <v>87402.08</v>
       </c>
       <c r="F34" t="n">
-        <v>105593.3</v>
+        <v>85417.88</v>
       </c>
       <c r="G34" t="n">
-        <v>109598.08</v>
+        <v>83405.27</v>
       </c>
       <c r="H34" t="n">
-        <v>112586.88</v>
+        <v>81925.62</v>
       </c>
       <c r="I34" t="n">
-        <v>111637.04</v>
+        <v>73404.06</v>
       </c>
       <c r="J34" t="n">
-        <v>111632.03</v>
+        <v>70908.88</v>
       </c>
       <c r="K34" t="n">
-        <v>114622.72</v>
+        <v>68923.34</v>
+      </c>
+      <c r="L34" t="n">
+        <v>55925.38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>28550.44</v>
+        <v>137116.83</v>
       </c>
       <c r="C35" t="n">
-        <v>29876.95</v>
+        <v>139635.16</v>
       </c>
       <c r="D35" t="n">
-        <v>38371.7</v>
+        <v>103133.48</v>
       </c>
       <c r="E35" t="n">
-        <v>40184.05</v>
+        <v>105603.26</v>
       </c>
       <c r="F35" t="n">
-        <v>39806.23</v>
+        <v>105593.3</v>
       </c>
       <c r="G35" t="n">
-        <v>39796.01</v>
+        <v>109598.08</v>
       </c>
       <c r="H35" t="n">
-        <v>47271.77</v>
+        <v>112586.88</v>
       </c>
       <c r="I35" t="n">
-        <v>47270.26</v>
+        <v>111637.04</v>
       </c>
       <c r="J35" t="n">
-        <v>47289.79</v>
+        <v>111632.03</v>
       </c>
       <c r="K35" t="n">
-        <v>47283.17</v>
+        <v>114622.72</v>
+      </c>
+      <c r="L35" t="n">
+        <v>105923.81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22630.17</v>
+        <v>28550.44</v>
       </c>
       <c r="C36" t="n">
-        <v>23803.54</v>
+        <v>29876.95</v>
       </c>
       <c r="D36" t="n">
-        <v>25402.31</v>
+        <v>38371.7</v>
       </c>
       <c r="E36" t="n">
-        <v>28596.32</v>
+        <v>40184.05</v>
       </c>
       <c r="F36" t="n">
-        <v>28500.35</v>
+        <v>39806.23</v>
       </c>
       <c r="G36" t="n">
-        <v>29193.95</v>
+        <v>39796.01</v>
       </c>
       <c r="H36" t="n">
-        <v>29191.58</v>
+        <v>47271.77</v>
       </c>
       <c r="I36" t="n">
-        <v>29205.51</v>
+        <v>47270.26</v>
       </c>
       <c r="J36" t="n">
-        <v>29005.49</v>
+        <v>47289.79</v>
       </c>
       <c r="K36" t="n">
-        <v>27925.8</v>
+        <v>47283.17</v>
+      </c>
+      <c r="L36" t="n">
+        <v>46945.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15721.9</v>
+        <v>22630.17</v>
       </c>
       <c r="C37" t="n">
-        <v>15723.67</v>
+        <v>23803.54</v>
       </c>
       <c r="D37" t="n">
-        <v>15717.55</v>
+        <v>25402.31</v>
       </c>
       <c r="E37" t="n">
-        <v>15727.67</v>
+        <v>28596.32</v>
       </c>
       <c r="F37" t="n">
-        <v>15723.65</v>
+        <v>28500.35</v>
       </c>
       <c r="G37" t="n">
-        <v>15724.25</v>
+        <v>29193.95</v>
       </c>
       <c r="H37" t="n">
-        <v>15719.09</v>
+        <v>29191.58</v>
       </c>
       <c r="I37" t="n">
-        <v>15718.14</v>
+        <v>29205.51</v>
       </c>
       <c r="J37" t="n">
-        <v>15726.42</v>
+        <v>29005.49</v>
       </c>
       <c r="K37" t="n">
-        <v>15729.27</v>
+        <v>27925.8</v>
+      </c>
+      <c r="L37" t="n">
+        <v>27473.51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25097.35</v>
+        <v>15721.9</v>
       </c>
       <c r="C38" t="n">
-        <v>25101.66</v>
+        <v>15723.67</v>
       </c>
       <c r="D38" t="n">
-        <v>18101.92</v>
+        <v>15717.55</v>
       </c>
       <c r="E38" t="n">
-        <v>21999.94</v>
+        <v>15727.67</v>
       </c>
       <c r="F38" t="n">
-        <v>21387.63</v>
+        <v>15723.65</v>
       </c>
       <c r="G38" t="n">
-        <v>23185.77</v>
+        <v>15724.25</v>
       </c>
       <c r="H38" t="n">
-        <v>23193.75</v>
+        <v>15719.09</v>
       </c>
       <c r="I38" t="n">
-        <v>23186.45</v>
+        <v>15718.14</v>
       </c>
       <c r="J38" t="n">
-        <v>23191.49</v>
+        <v>15726.42</v>
       </c>
       <c r="K38" t="n">
-        <v>23191.57</v>
+        <v>15729.27</v>
+      </c>
+      <c r="L38" t="n">
+        <v>15724.56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>59798.1</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>25097.35</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25101.66</v>
+      </c>
       <c r="D39" t="n">
-        <v>59805.93</v>
+        <v>18101.92</v>
       </c>
       <c r="E39" t="n">
-        <v>59792.52</v>
+        <v>21999.94</v>
       </c>
       <c r="F39" t="n">
-        <v>59806.38</v>
+        <v>21387.63</v>
       </c>
       <c r="G39" t="n">
-        <v>59790.22</v>
+        <v>23185.77</v>
       </c>
       <c r="H39" t="n">
-        <v>59794.62</v>
+        <v>23193.75</v>
       </c>
       <c r="I39" t="n">
-        <v>59808.13</v>
+        <v>23186.45</v>
       </c>
       <c r="J39" t="n">
-        <v>59786.09</v>
+        <v>23191.49</v>
       </c>
       <c r="K39" t="n">
-        <v>59797.46</v>
+        <v>23191.57</v>
+      </c>
+      <c r="L39" t="n">
+        <v>23184.53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98012.89999999999</v>
-      </c>
-      <c r="C40" t="n">
-        <v>98045.22</v>
-      </c>
+        <v>59798.1</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>109811</v>
+        <v>59805.93</v>
       </c>
       <c r="E40" t="n">
-        <v>109860.13</v>
+        <v>59792.52</v>
       </c>
       <c r="F40" t="n">
-        <v>109831.47</v>
+        <v>59806.38</v>
       </c>
       <c r="G40" t="n">
-        <v>114856.28</v>
+        <v>59790.22</v>
       </c>
       <c r="H40" t="n">
-        <v>114819.19</v>
+        <v>59794.62</v>
       </c>
       <c r="I40" t="n">
-        <v>114844.91</v>
+        <v>59808.13</v>
       </c>
       <c r="J40" t="n">
-        <v>114826.97</v>
+        <v>59786.09</v>
       </c>
       <c r="K40" t="n">
-        <v>108259.64</v>
+        <v>59797.46</v>
+      </c>
+      <c r="L40" t="n">
+        <v>59794.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35588.62</v>
+        <v>98012.89999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>35601.34</v>
+        <v>98045.22</v>
       </c>
       <c r="D41" t="n">
-        <v>35587.07</v>
+        <v>109811</v>
       </c>
       <c r="E41" t="n">
-        <v>40597.29</v>
+        <v>109860.13</v>
       </c>
       <c r="F41" t="n">
-        <v>40594.45</v>
+        <v>109831.47</v>
       </c>
       <c r="G41" t="n">
-        <v>40604.4</v>
+        <v>114856.28</v>
       </c>
       <c r="H41" t="n">
-        <v>42585.48</v>
+        <v>114819.19</v>
       </c>
       <c r="I41" t="n">
-        <v>40598.85</v>
+        <v>114844.91</v>
       </c>
       <c r="J41" t="n">
-        <v>43102.11</v>
+        <v>114826.97</v>
       </c>
       <c r="K41" t="n">
-        <v>40100.15</v>
+        <v>108259.64</v>
+      </c>
+      <c r="L41" t="n">
+        <v>95045.58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80197.7</v>
+        <v>35588.62</v>
       </c>
       <c r="C42" t="n">
-        <v>80186.7</v>
+        <v>35601.34</v>
       </c>
       <c r="D42" t="n">
-        <v>78542.13</v>
+        <v>35587.07</v>
       </c>
       <c r="E42" t="n">
-        <v>80972.5</v>
+        <v>40597.29</v>
       </c>
       <c r="F42" t="n">
-        <v>82094.33</v>
+        <v>40594.45</v>
       </c>
       <c r="G42" t="n">
-        <v>80111.47</v>
+        <v>40604.4</v>
       </c>
       <c r="H42" t="n">
-        <v>80092.84</v>
+        <v>42585.48</v>
       </c>
       <c r="I42" t="n">
-        <v>80116.05</v>
+        <v>40598.85</v>
       </c>
       <c r="J42" t="n">
-        <v>80099.52</v>
+        <v>43102.11</v>
       </c>
       <c r="K42" t="n">
-        <v>80091.89999999999</v>
+        <v>40100.15</v>
+      </c>
+      <c r="L42" t="n">
+        <v>42603.06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56674.56</v>
+        <v>80197.7</v>
       </c>
       <c r="C43" t="n">
-        <v>56675.38</v>
+        <v>80186.7</v>
       </c>
       <c r="D43" t="n">
-        <v>53289.91</v>
+        <v>78542.13</v>
       </c>
       <c r="E43" t="n">
-        <v>52330.8</v>
+        <v>80972.5</v>
       </c>
       <c r="F43" t="n">
-        <v>56549.93</v>
+        <v>82094.33</v>
       </c>
       <c r="G43" t="n">
-        <v>57194.26</v>
+        <v>80111.47</v>
       </c>
       <c r="H43" t="n">
-        <v>57332.25</v>
+        <v>80092.84</v>
       </c>
       <c r="I43" t="n">
-        <v>57341.02</v>
+        <v>80116.05</v>
       </c>
       <c r="J43" t="n">
-        <v>57341.81</v>
+        <v>80099.52</v>
       </c>
       <c r="K43" t="n">
-        <v>57331.42</v>
+        <v>80091.89999999999</v>
+      </c>
+      <c r="L43" t="n">
+        <v>80118.25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>223662.49</v>
+        <v>56674.56</v>
       </c>
       <c r="C44" t="n">
-        <v>223571.26</v>
+        <v>56675.38</v>
       </c>
       <c r="D44" t="n">
-        <v>202152.05</v>
+        <v>53289.91</v>
       </c>
       <c r="E44" t="n">
-        <v>194262.67</v>
+        <v>52330.8</v>
       </c>
       <c r="F44" t="n">
-        <v>194194.32</v>
+        <v>56549.93</v>
       </c>
       <c r="G44" t="n">
-        <v>194249.15</v>
+        <v>57194.26</v>
       </c>
       <c r="H44" t="n">
-        <v>191440.28</v>
+        <v>57332.25</v>
       </c>
       <c r="I44" t="n">
-        <v>191498.95</v>
+        <v>57341.02</v>
       </c>
       <c r="J44" t="n">
-        <v>191440.7</v>
+        <v>57341.81</v>
       </c>
       <c r="K44" t="n">
-        <v>191470.62</v>
+        <v>57331.42</v>
+      </c>
+      <c r="L44" t="n">
+        <v>57329.46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>241929.54</v>
+        <v>223662.49</v>
       </c>
       <c r="C45" t="n">
-        <v>242001.9</v>
+        <v>223571.26</v>
       </c>
       <c r="D45" t="n">
-        <v>236713.63</v>
+        <v>202152.05</v>
       </c>
       <c r="E45" t="n">
-        <v>248116.6</v>
+        <v>194262.67</v>
       </c>
       <c r="F45" t="n">
-        <v>248093.21</v>
+        <v>194194.32</v>
       </c>
       <c r="G45" t="n">
-        <v>246877.39</v>
+        <v>194249.15</v>
       </c>
       <c r="H45" t="n">
-        <v>247971.96</v>
+        <v>191440.28</v>
       </c>
       <c r="I45" t="n">
-        <v>247297.04</v>
+        <v>191498.95</v>
       </c>
       <c r="J45" t="n">
-        <v>248111.12</v>
+        <v>191440.7</v>
       </c>
       <c r="K45" t="n">
-        <v>248065.77</v>
+        <v>191470.62</v>
+      </c>
+      <c r="L45" t="n">
+        <v>175690.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>603943.27</v>
+        <v>241929.54</v>
       </c>
       <c r="C46" t="n">
-        <v>660221.95</v>
+        <v>242001.9</v>
       </c>
       <c r="D46" t="n">
-        <v>653885.79</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>236713.63</v>
+      </c>
+      <c r="E46" t="n">
+        <v>248116.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>248093.21</v>
+      </c>
+      <c r="G46" t="n">
+        <v>246877.39</v>
+      </c>
+      <c r="H46" t="n">
+        <v>247971.96</v>
+      </c>
+      <c r="I46" t="n">
+        <v>247297.04</v>
+      </c>
+      <c r="J46" t="n">
+        <v>248111.12</v>
+      </c>
+      <c r="K46" t="n">
+        <v>248065.77</v>
+      </c>
+      <c r="L46" t="n">
+        <v>287838.62</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>88367.8</v>
+        <v>603943.27</v>
       </c>
       <c r="C47" t="n">
-        <v>88426.83</v>
+        <v>660221.95</v>
       </c>
       <c r="D47" t="n">
-        <v>88300.14999999999</v>
-      </c>
-      <c r="E47" t="n">
-        <v>143223.89</v>
-      </c>
-      <c r="F47" t="n">
-        <v>143144.05</v>
-      </c>
-      <c r="G47" t="n">
-        <v>152818.26</v>
-      </c>
-      <c r="H47" t="n">
-        <v>152811.07</v>
-      </c>
-      <c r="I47" t="n">
-        <v>176061.66</v>
-      </c>
-      <c r="J47" t="n">
-        <v>176178.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>176013.09</v>
-      </c>
+        <v>653885.79</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30657.53</v>
+        <v>88367.8</v>
       </c>
       <c r="C48" t="n">
-        <v>30750.72</v>
+        <v>88426.83</v>
       </c>
       <c r="D48" t="n">
-        <v>30736.57</v>
+        <v>88300.14999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>30687.55</v>
+        <v>143223.89</v>
       </c>
       <c r="F48" t="n">
-        <v>30749.25</v>
+        <v>143144.05</v>
       </c>
       <c r="G48" t="n">
-        <v>30727.94</v>
+        <v>152818.26</v>
       </c>
       <c r="H48" t="n">
-        <v>30745.96</v>
+        <v>152811.07</v>
       </c>
       <c r="I48" t="n">
-        <v>30682.43</v>
+        <v>176061.66</v>
       </c>
       <c r="J48" t="n">
-        <v>30708.22</v>
+        <v>176178.6</v>
       </c>
       <c r="K48" t="n">
-        <v>30758.08</v>
+        <v>176013.09</v>
+      </c>
+      <c r="L48" t="n">
+        <v>175995.13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>25084.87</v>
+        <v>30657.53</v>
       </c>
       <c r="C49" t="n">
-        <v>25868.73</v>
+        <v>30750.72</v>
       </c>
       <c r="D49" t="n">
-        <v>25869.74</v>
+        <v>30736.57</v>
       </c>
       <c r="E49" t="n">
-        <v>25875.39</v>
+        <v>30687.55</v>
       </c>
       <c r="F49" t="n">
-        <v>25877.38</v>
+        <v>30749.25</v>
       </c>
       <c r="G49" t="n">
-        <v>25867.95</v>
+        <v>30727.94</v>
       </c>
       <c r="H49" t="n">
-        <v>25869.05</v>
+        <v>30745.96</v>
       </c>
       <c r="I49" t="n">
-        <v>25872.47</v>
+        <v>30682.43</v>
       </c>
       <c r="J49" t="n">
-        <v>25868.14</v>
+        <v>30708.22</v>
       </c>
       <c r="K49" t="n">
-        <v>25872.51</v>
+        <v>30758.08</v>
+      </c>
+      <c r="L49" t="n">
+        <v>30690.31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>10957.58</v>
+        <v>25084.87</v>
       </c>
       <c r="C50" t="n">
-        <v>10959.5</v>
+        <v>25868.73</v>
       </c>
       <c r="D50" t="n">
-        <v>10946.96</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>25869.74</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25875.39</v>
+      </c>
+      <c r="F50" t="n">
+        <v>25877.38</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25867.95</v>
+      </c>
+      <c r="H50" t="n">
+        <v>25869.05</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25872.47</v>
+      </c>
+      <c r="J50" t="n">
+        <v>25868.14</v>
+      </c>
+      <c r="K50" t="n">
+        <v>25872.51</v>
+      </c>
+      <c r="L50" t="n">
+        <v>27179.35</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>113180.26</v>
+        <v>10957.58</v>
       </c>
       <c r="C51" t="n">
-        <v>111905</v>
+        <v>10959.5</v>
       </c>
       <c r="D51" t="n">
-        <v>113552.71</v>
-      </c>
-      <c r="E51" t="n">
-        <v>106915.47</v>
-      </c>
-      <c r="F51" t="n">
-        <v>106248.95</v>
-      </c>
-      <c r="G51" t="n">
-        <v>106552.1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>106726.35</v>
-      </c>
-      <c r="I51" t="n">
-        <v>106498.85</v>
-      </c>
-      <c r="J51" t="n">
-        <v>105914.38</v>
-      </c>
-      <c r="K51" t="n">
-        <v>104420.99</v>
-      </c>
+        <v>10946.96</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>113180.26</v>
+      </c>
+      <c r="C52" t="n">
+        <v>111905</v>
+      </c>
+      <c r="D52" t="n">
+        <v>113552.71</v>
+      </c>
+      <c r="E52" t="n">
+        <v>106915.47</v>
+      </c>
+      <c r="F52" t="n">
+        <v>106248.95</v>
+      </c>
+      <c r="G52" t="n">
+        <v>106552.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>106726.35</v>
+      </c>
+      <c r="I52" t="n">
+        <v>106498.85</v>
+      </c>
+      <c r="J52" t="n">
+        <v>105914.38</v>
+      </c>
+      <c r="K52" t="n">
+        <v>104420.99</v>
+      </c>
+      <c r="L52" t="n">
+        <v>101350.25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B53" t="n">
         <v>5545832.83</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C53" t="n">
         <v>4364294.97</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D53" t="n">
         <v>5564082.71</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E53" t="n">
         <v>5025027.29</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F53" t="n">
         <v>4993700.86</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G53" t="n">
         <v>5007948.71</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H53" t="n">
         <v>5016138.37</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I53" t="n">
         <v>5005445.99</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J53" t="n">
         <v>4977976.06</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K53" t="n">
         <v>4907786.72</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4864811.81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/YPFD.xlsx
+++ b/backend/src/excel_handler/files/YPFD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>73932.32000000001</v>
       </c>
+      <c r="M2" t="n">
+        <v>73934.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>173529.32</v>
       </c>
+      <c r="M3" t="n">
+        <v>149252.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>30001.94</v>
       </c>
+      <c r="M4" t="n">
+        <v>30000.39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>37365.24</v>
       </c>
+      <c r="M5" t="n">
+        <v>37384.27</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>85790.00999999999</v>
       </c>
+      <c r="M6" t="n">
+        <v>85799.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>162313.31</v>
       </c>
+      <c r="M7" t="n">
+        <v>162370.89</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>95157.57000000001</v>
       </c>
+      <c r="M8" t="n">
+        <v>95152.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>61677.19</v>
       </c>
+      <c r="M9" t="n">
+        <v>53627.24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>1737.05</v>
       </c>
+      <c r="M10" t="n">
+        <v>1735.94</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>281112.1</v>
       </c>
+      <c r="M11" t="n">
+        <v>281191.59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>1053.09</v>
       </c>
+      <c r="M12" t="n">
+        <v>1052.96</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -969,6 +1007,9 @@
       <c r="L13" t="n">
         <v>451.09</v>
       </c>
+      <c r="M13" t="n">
+        <v>450.64</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1009,6 +1050,9 @@
       <c r="L14" t="n">
         <v>3890.85</v>
       </c>
+      <c r="M14" t="n">
+        <v>3847.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1049,6 +1093,9 @@
       <c r="L15" t="n">
         <v>147818.93</v>
       </c>
+      <c r="M15" t="n">
+        <v>147814.63</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1089,6 +1136,9 @@
       <c r="L16" t="n">
         <v>23384.68</v>
       </c>
+      <c r="M16" t="n">
+        <v>23383.09</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1129,6 +1179,9 @@
       <c r="L17" t="n">
         <v>32530.4</v>
       </c>
+      <c r="M17" t="n">
+        <v>32502.87</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1168,6 +1221,9 @@
       </c>
       <c r="L18" t="n">
         <v>430132.69</v>
+      </c>
+      <c r="M18" t="n">
+        <v>426332.79</v>
       </c>
     </row>
     <row r="19">
@@ -1189,6 +1245,9 @@
       <c r="L19" t="n">
         <v>269.42</v>
       </c>
+      <c r="M19" t="n">
+        <v>270.22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1227,6 +1286,9 @@
       <c r="L20" t="n">
         <v>276006.89</v>
       </c>
+      <c r="M20" t="n">
+        <v>269489.02</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1265,6 +1327,9 @@
       <c r="L21" t="n">
         <v>116650.44</v>
       </c>
+      <c r="M21" t="n">
+        <v>116637.72</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1303,6 +1368,9 @@
       <c r="L22" t="n">
         <v>17847.54</v>
       </c>
+      <c r="M22" t="n">
+        <v>17838.87</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1341,6 +1409,9 @@
       <c r="L23" t="n">
         <v>64281.25</v>
       </c>
+      <c r="M23" t="n">
+        <v>64232.99</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1379,6 +1450,9 @@
       <c r="L24" t="n">
         <v>206453.36</v>
       </c>
+      <c r="M24" t="n">
+        <v>206394.71</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1417,6 +1491,9 @@
       <c r="L25" t="n">
         <v>35798.81</v>
       </c>
+      <c r="M25" t="n">
+        <v>35751.34</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1455,6 +1532,9 @@
       <c r="L26" t="n">
         <v>139228.62</v>
       </c>
+      <c r="M26" t="n">
+        <v>132238.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1493,6 +1573,9 @@
       <c r="L27" t="n">
         <v>132139.32</v>
       </c>
+      <c r="M27" t="n">
+        <v>125036.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1531,6 +1614,9 @@
       <c r="L28" t="n">
         <v>196184.13</v>
       </c>
+      <c r="M28" t="n">
+        <v>190615.98</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1571,6 +1657,9 @@
       <c r="L29" t="n">
         <v>151325.15</v>
       </c>
+      <c r="M29" t="n">
+        <v>152836.76</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1611,6 +1700,9 @@
       <c r="L30" t="n">
         <v>51622.97</v>
       </c>
+      <c r="M30" t="n">
+        <v>48037.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1651,6 +1743,9 @@
       <c r="L31" t="n">
         <v>499975.3</v>
       </c>
+      <c r="M31" t="n">
+        <v>500020.63</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1691,6 +1786,9 @@
       <c r="L32" t="n">
         <v>22774.01</v>
       </c>
+      <c r="M32" t="n">
+        <v>22773.01</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1731,6 +1829,9 @@
       <c r="L33" t="n">
         <v>4915.6</v>
       </c>
+      <c r="M33" t="n">
+        <v>4913.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1771,6 +1872,9 @@
       <c r="L34" t="n">
         <v>55925.38</v>
       </c>
+      <c r="M34" t="n">
+        <v>55922.63</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1811,6 +1915,9 @@
       <c r="L35" t="n">
         <v>105923.81</v>
       </c>
+      <c r="M35" t="n">
+        <v>105898.88</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1851,6 +1958,9 @@
       <c r="L36" t="n">
         <v>46945.15</v>
       </c>
+      <c r="M36" t="n">
+        <v>41383.26</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1891,6 +2001,9 @@
       <c r="L37" t="n">
         <v>27473.51</v>
       </c>
+      <c r="M37" t="n">
+        <v>22997.24</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1931,6 +2044,9 @@
       <c r="L38" t="n">
         <v>15724.56</v>
       </c>
+      <c r="M38" t="n">
+        <v>15721.23</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1970,6 +2086,9 @@
       </c>
       <c r="L39" t="n">
         <v>23184.53</v>
+      </c>
+      <c r="M39" t="n">
+        <v>23184.33</v>
       </c>
     </row>
     <row r="40">
@@ -2009,6 +2128,9 @@
       <c r="L40" t="n">
         <v>59794.32</v>
       </c>
+      <c r="M40" t="n">
+        <v>59806.92</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2049,6 +2171,9 @@
       <c r="L41" t="n">
         <v>95045.58</v>
       </c>
+      <c r="M41" t="n">
+        <v>95020.24000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2089,6 +2214,9 @@
       <c r="L42" t="n">
         <v>42603.06</v>
       </c>
+      <c r="M42" t="n">
+        <v>42095.26</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2129,6 +2257,9 @@
       <c r="L43" t="n">
         <v>80118.25</v>
       </c>
+      <c r="M43" t="n">
+        <v>80094.3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2169,6 +2300,9 @@
       <c r="L44" t="n">
         <v>57329.46</v>
       </c>
+      <c r="M44" t="n">
+        <v>55656.41</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2209,6 +2343,9 @@
       <c r="L45" t="n">
         <v>175690.2</v>
       </c>
+      <c r="M45" t="n">
+        <v>175682.74</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2248,6 +2385,9 @@
       </c>
       <c r="L46" t="n">
         <v>287838.62</v>
+      </c>
+      <c r="M46" t="n">
+        <v>320154.14</v>
       </c>
     </row>
     <row r="47">
@@ -2273,6 +2413,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2313,6 +2454,9 @@
       <c r="L48" t="n">
         <v>175995.13</v>
       </c>
+      <c r="M48" t="n">
+        <v>176065.42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2353,6 +2497,9 @@
       <c r="L49" t="n">
         <v>30690.31</v>
       </c>
+      <c r="M49" t="n">
+        <v>30761.3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2392,6 +2539,9 @@
       </c>
       <c r="L50" t="n">
         <v>27179.35</v>
+      </c>
+      <c r="M50" t="n">
+        <v>27185.39</v>
       </c>
     </row>
     <row r="51">
@@ -2417,6 +2567,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2457,6 +2608,9 @@
       <c r="L52" t="n">
         <v>101350.25</v>
       </c>
+      <c r="M52" t="n">
+        <v>100428.13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2496,6 +2650,9 @@
       </c>
       <c r="L53" t="n">
         <v>4864811.81</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4820550.25</v>
       </c>
     </row>
   </sheetData>
